--- a/POI/Carto/PDS_Category_Assignment.xlsx
+++ b/POI/Carto/PDS_Category_Assignment.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lembke/Desktop/HERE/GIT/icons-by-here-technologies/POI/Carto/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lembke/Desktop/HERE/OneDrive/HERE Global B.V/LUI - Documents/03 Design/LUI Icons/05_Carto Icons/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{281178BB-3FC6-A34D-B428-D4BC159A2752}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{7630598F-EA90-1E40-B934-AA64C1BFE18E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{646461C3-789A-9746-A063-EA02B6E6A4F1}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="460" windowWidth="51200" windowHeight="28340" xr2:uid="{C64EB798-04F6-AE43-9DCC-0EA02E11247A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28340" xr2:uid="{C64EB798-04F6-AE43-9DCC-0EA02E11247A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1450" uniqueCount="982">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="987">
   <si>
     <t>PDS Category name</t>
   </si>
@@ -2677,9 +2677,6 @@
     <t>4300 Rest Area</t>
   </si>
   <si>
-    <t>350-3510-0237_mountain-passes.svg</t>
-  </si>
-  <si>
     <t>900-9200-0219_marina.svg</t>
   </si>
   <si>
@@ -2842,9 +2839,6 @@
     <t>6950 Hair and Beauty</t>
   </si>
   <si>
-    <t>600-6000-0000_shopping.svg</t>
-  </si>
-  <si>
     <t>600-6700-0000_bookstore.svg</t>
   </si>
   <si>
@@ -2990,13 +2984,34 @@
   </si>
   <si>
     <t xml:space="preserve"> 550-5510-0202_park-recreation-area.svg</t>
+  </si>
+  <si>
+    <t>350-3550-0336_natural-geographical.svg</t>
+  </si>
+  <si>
+    <t>600-6100-0062_shopping-mall.svg</t>
+  </si>
+  <si>
+    <t>800-8600-0376_bike-park.svg</t>
+  </si>
+  <si>
+    <t>800-8000-0325_hospital-emergency-room.svg</t>
+  </si>
+  <si>
+    <t>900-9300-0000_building.svg</t>
+  </si>
+  <si>
+    <t>700-7400-0141_business-service.svg</t>
+  </si>
+  <si>
+    <t>000-0000-0000_generic.svg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3112,6 +3127,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="19">
     <fill>
@@ -3222,7 +3243,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -3282,6 +3303,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD9D9D9"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD9D9D9"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD9D9D9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFD9D9D9"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD9D9D9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3290,7 +3339,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3398,6 +3447,12 @@
     <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3487,7 +3542,7 @@
               <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s1360"/>
             </a:ext>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1EBA52A-30C7-1246-B651-95F119C2BBE6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3548,7 +3603,7 @@
         <xdr:cNvPr id="18" name="Graphic 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01673B99-6EFF-5447-B00E-EF68DBD81AE8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3601,7 +3656,7 @@
         <xdr:cNvPr id="20" name="Graphic 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A139D9AE-80AF-8742-B59E-DE72B38CEFBF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3654,7 +3709,7 @@
         <xdr:cNvPr id="23" name="Graphic 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52B57A20-7FB2-3B46-BE8E-A7373411E8A1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3707,7 +3762,7 @@
         <xdr:cNvPr id="24" name="Graphic 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{880FD048-4623-824B-863D-3F2306471198}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3760,7 +3815,7 @@
         <xdr:cNvPr id="25" name="Graphic 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F88EF0C-5BB2-B24D-8B20-9FEE85A939BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3813,7 +3868,7 @@
         <xdr:cNvPr id="26" name="Graphic 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{260F16AD-7E86-1F44-A420-BACAB50D83D1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3866,7 +3921,7 @@
         <xdr:cNvPr id="27" name="Graphic 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E04397D-EBF8-4A46-A5E6-C0281F1BF7D8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3919,7 +3974,7 @@
         <xdr:cNvPr id="29" name="Graphic 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DD0D146-1BDA-EE47-A156-BDF35E52F320}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3972,7 +4027,7 @@
         <xdr:cNvPr id="31" name="Graphic 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81CED351-D57B-E54B-AE4D-9FBE9776D052}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4025,7 +4080,7 @@
         <xdr:cNvPr id="32" name="Graphic 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08E8146B-8D07-8741-91DC-D731318E2BC6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4078,7 +4133,7 @@
         <xdr:cNvPr id="33" name="Graphic 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED5BF5C0-9272-5E40-84B9-A96155DEEB54}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4128,7 +4183,7 @@
         <xdr:cNvPr id="34" name="Graphic 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13D234F5-C17C-6E4C-8BFC-54ED1DE1E197}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4178,7 +4233,7 @@
         <xdr:cNvPr id="35" name="Graphic 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AEA361B-BCCE-4D4D-8247-6C7D624C4CFE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4228,7 +4283,7 @@
         <xdr:cNvPr id="36" name="Graphic 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22EE1552-FE0D-9D43-AD7F-A44E85913FE0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4278,7 +4333,7 @@
         <xdr:cNvPr id="37" name="Graphic 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4436C9F-9A0D-2E42-A210-C58D771B8832}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4328,7 +4383,7 @@
         <xdr:cNvPr id="38" name="Graphic 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C663234-CB1D-274E-888A-E45D7FC410AC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4378,7 +4433,7 @@
         <xdr:cNvPr id="39" name="Graphic 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33C10151-4ED3-7247-91D7-BE58EA162FD8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4428,7 +4483,7 @@
         <xdr:cNvPr id="40" name="Graphic 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC6F830B-EFA7-4A48-B8AF-349FF699337C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4478,7 +4533,7 @@
         <xdr:cNvPr id="41" name="Graphic 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0178B18-BB04-3E4F-9C62-96158D10DEFB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4528,7 +4583,7 @@
         <xdr:cNvPr id="42" name="Graphic 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{310817DF-3A84-6D47-BB2E-284DC2D3943D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4564,21 +4619,21 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>634999</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>423526</xdr:colOff>
+      <xdr:colOff>457200</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>220133</xdr:rowOff>
+      <xdr:rowOff>457199</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="44" name="Graphic 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6EAFC9C-1E79-9F4E-9F1C-EA56B49A8FB8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4600,7 +4655,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18217444" y="17780000"/>
+          <a:off x="18163953" y="17779999"/>
           <a:ext cx="457200" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4628,7 +4683,7 @@
         <xdr:cNvPr id="45" name="Graphic 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{524D02B2-1955-864A-A705-23AE51F3D76C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4678,7 +4733,7 @@
         <xdr:cNvPr id="49" name="Graphic 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9C2D2D9-CC61-CA4E-9D5F-B57DA68AB4F9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4712,23 +4767,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3869068</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>423333</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>84666</xdr:rowOff>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>457200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="50" name="Graphic 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1DB35A9-2CB4-2245-95AF-D0D135F29830}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4750,7 +4805,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18217444" y="20320000"/>
+          <a:off x="18163952" y="20320000"/>
           <a:ext cx="457200" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4778,7 +4833,7 @@
         <xdr:cNvPr id="51" name="Graphic 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2957759A-CC24-A440-9205-56332BC1B4C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4828,7 +4883,7 @@
         <xdr:cNvPr id="52" name="Graphic 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{292E48F9-1D9A-654F-B689-D8AB6DFD24A1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4878,7 +4933,7 @@
         <xdr:cNvPr id="53" name="Graphic 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0E01659-9DB1-794A-8DE7-EB67A4FE88C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4928,7 +4983,7 @@
         <xdr:cNvPr id="54" name="Graphic 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{742D9E0C-2679-DF4F-B0B5-BAD524DEC074}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4978,7 +5033,7 @@
         <xdr:cNvPr id="55" name="Graphic 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99510DCB-3500-8345-AA7A-C4A53849A1F2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5028,7 +5083,7 @@
         <xdr:cNvPr id="56" name="Graphic 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D25DD506-5080-9F48-9513-46F4E1EE3C02}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5078,7 +5133,7 @@
         <xdr:cNvPr id="57" name="Graphic 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7209B893-145F-D143-8BAD-EE72674B75F1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5128,7 +5183,7 @@
         <xdr:cNvPr id="58" name="Graphic 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DF40D6E-B4E4-4847-BAF0-FD5E0C7F18A9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5178,7 +5233,7 @@
         <xdr:cNvPr id="59" name="Graphic 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD1F6915-7441-CE41-99B3-2933E8F92972}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5228,7 +5283,7 @@
         <xdr:cNvPr id="60" name="Graphic 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38358936-8A48-7842-A84A-A2B706AFDD55}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5278,7 +5333,7 @@
         <xdr:cNvPr id="61" name="Graphic 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FF53500-8066-1942-B967-AC2353030653}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5328,7 +5383,7 @@
         <xdr:cNvPr id="62" name="Graphic 61">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E8A74AB-E5CF-A34F-92CE-543B198E63F5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5378,7 +5433,7 @@
         <xdr:cNvPr id="63" name="Graphic 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8900258-E8AA-FC4A-8944-E39ACD5F9271}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5428,7 +5483,7 @@
         <xdr:cNvPr id="64" name="Graphic 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE124479-4EEE-9543-8E50-7953B2BC4C66}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000040000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5478,7 +5533,7 @@
         <xdr:cNvPr id="65" name="Graphic 64">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C21A7391-9114-8E4C-8312-375783763DB7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000041000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5528,7 +5583,7 @@
         <xdr:cNvPr id="66" name="Graphic 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8E9DABD-013B-914D-9A01-2E1A0482FB26}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5578,7 +5633,7 @@
         <xdr:cNvPr id="67" name="Graphic 66">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFC43D22-DA9C-BF44-82F2-D6DC5A391501}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5628,7 +5683,7 @@
         <xdr:cNvPr id="68" name="Graphic 67">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D480F31-EB43-024E-BDB0-83F4E19B6FE7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000044000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5678,7 +5733,7 @@
         <xdr:cNvPr id="69" name="Graphic 68">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1949242-367E-3042-B3B6-5D8D9E3DAC17}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5728,7 +5783,7 @@
         <xdr:cNvPr id="70" name="Graphic 69">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F3714AA-B589-0141-A1BE-F3558AA2A775}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000046000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5778,7 +5833,7 @@
         <xdr:cNvPr id="71" name="Graphic 70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{357C36D7-5583-C641-A33A-B560263D8878}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000047000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5828,7 +5883,7 @@
         <xdr:cNvPr id="72" name="Graphic 71">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{201E0C0C-8D93-3D44-8244-D91D6332D39E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000048000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5878,7 +5933,7 @@
         <xdr:cNvPr id="73" name="Graphic 72">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECAE4366-E500-F343-9363-C060C35443D5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000049000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5928,7 +5983,7 @@
         <xdr:cNvPr id="74" name="Graphic 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEA8F3D3-ECAB-F64B-8B03-8F7497EA310C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5978,7 +6033,7 @@
         <xdr:cNvPr id="75" name="Graphic 74">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B39C1810-88EE-8940-A96F-135E5BCBAB81}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6028,7 +6083,7 @@
         <xdr:cNvPr id="76" name="Graphic 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F24D28F0-2845-6B46-979A-34B27377FD3C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6078,7 +6133,7 @@
         <xdr:cNvPr id="77" name="Graphic 76">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68123B99-392E-C343-92CC-27ECD097E5F1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6128,7 +6183,7 @@
         <xdr:cNvPr id="78" name="Graphic 77">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5FE9BF8-DC1B-3548-A5E4-FA83C73C3234}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6178,7 +6233,7 @@
         <xdr:cNvPr id="79" name="Graphic 78">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82F7F713-2779-2840-A475-71A8AC34B027}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6228,7 +6283,7 @@
         <xdr:cNvPr id="80" name="Graphic 79">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25DF6E72-4E55-C04C-A00A-D2DB242473BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000050000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6278,7 +6333,7 @@
         <xdr:cNvPr id="81" name="Graphic 80">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B38AB8C-8329-1849-9A1C-50F39A7D6108}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000051000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6328,7 +6383,7 @@
         <xdr:cNvPr id="82" name="Graphic 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56C28884-2173-3940-B70D-D2E0D1AFB037}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000052000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6378,7 +6433,7 @@
         <xdr:cNvPr id="83" name="Graphic 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6663E14E-7B47-1642-844C-D0A8AD2E0419}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000053000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6428,7 +6483,7 @@
         <xdr:cNvPr id="84" name="Graphic 83">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A77E7883-46BD-EF4B-BB4A-05C6548D45B8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000054000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6478,7 +6533,7 @@
         <xdr:cNvPr id="85" name="Graphic 84">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B2A1DB0-4CD3-8B48-BCC8-6074DA7E36E3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000055000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6528,7 +6583,7 @@
         <xdr:cNvPr id="86" name="Graphic 85">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D3DD672-7B0C-3C45-898F-05A855E5B2FA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000056000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6578,7 +6633,7 @@
         <xdr:cNvPr id="87" name="Graphic 86">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8183AEBC-CF61-E94F-BE3A-009D39DE5225}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000057000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6628,7 +6683,7 @@
         <xdr:cNvPr id="88" name="Graphic 87">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0717FDB1-F85E-7C45-AE2E-33C31CCFE7ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000058000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6678,7 +6733,7 @@
         <xdr:cNvPr id="89" name="Graphic 88">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8908AAB5-2824-1F4A-AE5A-D6339662DF4C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000059000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6728,7 +6783,7 @@
         <xdr:cNvPr id="90" name="Graphic 89">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{181A8D36-4F52-AF47-B4C4-E0224B41E883}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6778,7 +6833,7 @@
         <xdr:cNvPr id="91" name="Graphic 90">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BFC7816-DB21-0641-A46E-398D06916BAD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6828,7 +6883,7 @@
         <xdr:cNvPr id="92" name="Graphic 91">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01C9E627-34FA-9F46-9603-82C746A02EF7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6878,7 +6933,7 @@
         <xdr:cNvPr id="93" name="Graphic 92">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CF81947-8EB5-BE4A-8DB0-D5E1ECC352A3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6928,7 +6983,7 @@
         <xdr:cNvPr id="94" name="Graphic 93">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A837D05D-E925-7F4F-A545-AF88431E1951}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6978,7 +7033,7 @@
         <xdr:cNvPr id="95" name="Graphic 94">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40B2A045-DE56-FB4D-9B98-E1CDF5BF1EEB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7028,7 +7083,7 @@
         <xdr:cNvPr id="96" name="Graphic 95">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{459DAD8A-9DD5-9946-893B-AD030AD7235E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000060000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7078,7 +7133,7 @@
         <xdr:cNvPr id="97" name="Graphic 96">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C57AAC36-E30F-FC44-B8C3-E022A6D2CCBA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000061000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7128,7 +7183,7 @@
         <xdr:cNvPr id="98" name="Graphic 97">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93FDC1CB-0120-B244-A83B-DA8200870DD9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000062000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7178,7 +7233,7 @@
         <xdr:cNvPr id="99" name="Graphic 98">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C603DE8-41CD-9D4F-802B-8CD18E5AC540}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000063000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7228,7 +7283,7 @@
         <xdr:cNvPr id="100" name="Graphic 99">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36B1AC60-EE01-D74B-8E82-F99E278B3311}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000064000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7278,7 +7333,7 @@
         <xdr:cNvPr id="101" name="Graphic 100">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BBCD0C2-0954-DF4A-A9E1-388ABE5D95F6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000065000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7328,7 +7383,7 @@
         <xdr:cNvPr id="102" name="Graphic 101">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC0E6C9B-1E03-8B44-807E-509BBD3549D4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000066000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7378,7 +7433,7 @@
         <xdr:cNvPr id="103" name="Graphic 102">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41979BEC-FF0D-3C42-8450-8F72B7815419}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000067000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7428,7 +7483,7 @@
         <xdr:cNvPr id="104" name="Graphic 103">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDC05991-A48F-CD4A-89C4-8F6090D13720}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000068000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7478,7 +7533,7 @@
         <xdr:cNvPr id="105" name="Graphic 104">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8E64FDB-4C4C-0045-9034-793FFE658A6E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000069000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7528,7 +7583,7 @@
         <xdr:cNvPr id="106" name="Graphic 105">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C48842FA-DFD4-6244-93DE-B804DF603F8C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7578,7 +7633,7 @@
         <xdr:cNvPr id="108" name="Graphic 107">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2C08E2D-E6CC-2A4B-A814-DE34A2739044}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7628,7 +7683,7 @@
         <xdr:cNvPr id="109" name="Graphic 108">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4141994E-CFFE-BB42-B80F-496EE271FBC9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7678,7 +7733,7 @@
         <xdr:cNvPr id="110" name="Graphic 109">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F840A7E2-B546-4C48-9066-F57BDB6FB3EC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7728,7 +7783,7 @@
         <xdr:cNvPr id="111" name="Graphic 110">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FC28617-C599-B74B-B7BE-DC998861223E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7778,7 +7833,7 @@
         <xdr:cNvPr id="112" name="Graphic 111">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3765A65F-BA7B-1C4D-B3F7-0C2D33E691B7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000070000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7828,7 +7883,7 @@
         <xdr:cNvPr id="113" name="Graphic 112">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0BE5A65-894F-D948-B266-F68CB3B4ED7A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000071000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7878,7 +7933,7 @@
         <xdr:cNvPr id="114" name="Graphic 113">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE21593C-FDE7-5140-914D-2E8667D78140}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000072000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7928,7 +7983,7 @@
         <xdr:cNvPr id="115" name="Graphic 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C74DEFD-2388-CD40-AABE-79D1BDD088A6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000073000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7978,7 +8033,7 @@
         <xdr:cNvPr id="116" name="Graphic 115">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04D2E90D-5579-3341-8044-95DF22528D66}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000074000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8028,7 +8083,7 @@
         <xdr:cNvPr id="117" name="Graphic 116">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAA718E9-09D6-BB40-A5C9-79142D164EF6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000075000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8078,7 +8133,7 @@
         <xdr:cNvPr id="118" name="Graphic 117">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43604181-1616-224F-ABA5-8DE334375195}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000076000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8114,56 +8169,6 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>162</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>162</xdr:row>
-      <xdr:rowOff>457200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="119" name="Graphic 118">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0ECF26BF-18EF-4B40-92A5-1AB62A622682}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId81">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId82"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="18209054" y="102870000"/>
-          <a:ext cx="457200" cy="457200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
       <xdr:row>161</xdr:row>
       <xdr:rowOff>17162</xdr:rowOff>
     </xdr:from>
@@ -8178,7 +8183,7 @@
         <xdr:cNvPr id="120" name="Graphic 119">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03D89E44-E7E2-E347-B235-ABE56585916B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000078000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8228,7 +8233,7 @@
         <xdr:cNvPr id="121" name="Graphic 120">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B038C6E0-8A01-FB47-9F60-EFDFEEC6BEA0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000079000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8278,7 +8283,7 @@
         <xdr:cNvPr id="122" name="Graphic 121">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DF71F52-680E-D245-BA08-628C934E8413}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8328,7 +8333,7 @@
         <xdr:cNvPr id="123" name="Graphic 122">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4D203C4-0D27-8B45-A8CD-C8E02C9F49D6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8378,7 +8383,7 @@
         <xdr:cNvPr id="124" name="Graphic 123">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C9F3ABB-9E65-EA40-B92D-4110C0D8000A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8428,7 +8433,7 @@
         <xdr:cNvPr id="125" name="Graphic 124">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94244800-69FB-A94E-9042-595C5CA7DC96}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8478,7 +8483,7 @@
         <xdr:cNvPr id="126" name="Graphic 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD400A0B-5500-9C4F-8301-EF2F15665BCA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8528,7 +8533,7 @@
         <xdr:cNvPr id="127" name="Graphic 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DCE9755-6AB9-334F-8D95-01F6F243B6BC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8578,7 +8583,7 @@
         <xdr:cNvPr id="128" name="Graphic 127">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFBA3A3D-1113-2541-85F4-39AF605A99BB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000080000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8628,7 +8633,7 @@
         <xdr:cNvPr id="129" name="Graphic 128">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30C2F825-E72D-DB42-828E-07C7F5F1F38E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000081000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8678,7 +8683,7 @@
         <xdr:cNvPr id="130" name="Graphic 129">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F2FCF45-25DC-8449-AF50-0E866D8B92B7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000082000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8728,7 +8733,7 @@
         <xdr:cNvPr id="131" name="Graphic 130">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01576E1A-00F3-964B-938B-38C8954E141E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000083000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8778,7 +8783,7 @@
         <xdr:cNvPr id="132" name="Graphic 131">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F9496DB-29C6-FD4C-889E-33576FFD911E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8828,7 +8833,7 @@
         <xdr:cNvPr id="133" name="Graphic 132">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF51CB71-A3D3-534C-AA2E-08A507A95E52}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000085000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8878,7 +8883,7 @@
         <xdr:cNvPr id="134" name="Graphic 133">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B01D5233-D419-AF44-8A18-F35D0E9BBC8A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000086000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8928,7 +8933,7 @@
         <xdr:cNvPr id="135" name="Graphic 134">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E52EDACA-B13F-BC47-B30F-3C78531560A5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000087000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8978,7 +8983,7 @@
         <xdr:cNvPr id="136" name="Graphic 135">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24CE7A3E-BE91-5D45-85DB-8274B438D008}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000088000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9028,7 +9033,7 @@
         <xdr:cNvPr id="137" name="Graphic 136">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DE0F23A-E962-8049-B1C8-93187DC9EAFA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000089000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9078,7 +9083,7 @@
         <xdr:cNvPr id="138" name="Graphic 137">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D497CCB-4956-F147-A8A3-789AAC210BAB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9128,7 +9133,7 @@
         <xdr:cNvPr id="139" name="Graphic 138">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6171033-4F30-5940-B57D-D9F3A35ECBF8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9178,7 +9183,7 @@
         <xdr:cNvPr id="140" name="Graphic 139">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{044CE461-5EB6-0A48-A796-A4F6F8FE443E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9228,7 +9233,7 @@
         <xdr:cNvPr id="141" name="Graphic 140">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6404E92D-0D87-434A-A368-2A919E2BDFEC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9278,7 +9283,7 @@
         <xdr:cNvPr id="142" name="Graphic 141">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6B38FA3-79DF-1A4D-A06C-A78BC4FF1E13}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9328,7 +9333,7 @@
         <xdr:cNvPr id="143" name="Graphic 142">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75974A7D-F9B3-3941-9856-4883714ADEC8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9378,7 +9383,7 @@
         <xdr:cNvPr id="144" name="Graphic 143">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F525D21D-37AF-4B49-866C-B8E09273EABF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000090000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9428,7 +9433,7 @@
         <xdr:cNvPr id="145" name="Graphic 144">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0E24851-7149-FE4C-8C40-D22ADE4A241F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000091000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9478,7 +9483,7 @@
         <xdr:cNvPr id="146" name="Graphic 145">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8CD3F8E-A885-BC48-AA4E-07026DC1113F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000092000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9528,7 +9533,7 @@
         <xdr:cNvPr id="147" name="Graphic 146">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58A65FE3-A23C-3B45-BE56-C70E6F2D5FCF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000093000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9578,7 +9583,7 @@
         <xdr:cNvPr id="148" name="Graphic 147">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC9B58A9-1546-BD4C-90F1-62A1FD65B161}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000094000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9628,7 +9633,7 @@
         <xdr:cNvPr id="149" name="Graphic 148">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5F7C5E2-96B9-4343-99A4-43229429FCCE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000095000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9678,7 +9683,7 @@
         <xdr:cNvPr id="150" name="Graphic 149">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{561CB92B-019D-5346-8535-1B9A51386B10}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000096000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9728,7 +9733,7 @@
         <xdr:cNvPr id="151" name="Graphic 150">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6FE7D3F-03B0-284C-A974-26DFBF6E8199}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000097000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9778,7 +9783,7 @@
         <xdr:cNvPr id="152" name="Graphic 151">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{776B08C2-A56F-E141-B870-C99FBF4AC07B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000098000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9828,7 +9833,7 @@
         <xdr:cNvPr id="153" name="Graphic 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43417BC0-5884-7049-99EE-CD9018955D06}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000099000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9878,7 +9883,7 @@
         <xdr:cNvPr id="154" name="Graphic 153">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{213BF104-C3C0-9140-86C7-005B7B0467E2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9928,7 +9933,7 @@
         <xdr:cNvPr id="155" name="Graphic 154">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83794B43-98A6-4046-ABBC-61A7A0633C8E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9978,7 +9983,7 @@
         <xdr:cNvPr id="156" name="Graphic 155">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{569E571D-DC17-C242-802F-C6E6F5E9DF46}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10028,7 +10033,7 @@
         <xdr:cNvPr id="157" name="Graphic 156">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F994FA9A-22C8-3A45-8052-7273DA9A0C79}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10078,7 +10083,7 @@
         <xdr:cNvPr id="158" name="Graphic 157">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A70CB20C-39BB-4440-B6BE-0D8C7C7D1198}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10128,7 +10133,7 @@
         <xdr:cNvPr id="159" name="Graphic 158">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4A29409-2D2F-6743-B4FB-4821807BF5C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10178,7 +10183,7 @@
         <xdr:cNvPr id="160" name="Graphic 159">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F42ADF60-DF58-D943-B90F-E4C4A1B7ACF9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A0000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10228,7 +10233,7 @@
         <xdr:cNvPr id="161" name="Graphic 160">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13BE8202-1327-4F44-847A-D8F9CD3F6E93}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A1000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10278,7 +10283,7 @@
         <xdr:cNvPr id="162" name="Graphic 161">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9558BE9C-5C96-C346-A309-4917A4CD8FDF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A2000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10328,7 +10333,7 @@
         <xdr:cNvPr id="163" name="Graphic 162">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BAE2456-4122-5443-A97F-8C902CE57C20}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A3000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10378,7 +10383,7 @@
         <xdr:cNvPr id="164" name="Graphic 163">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC18D6A8-12D7-C44D-B1AC-A01BF469AEB6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A4000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10428,7 +10433,7 @@
         <xdr:cNvPr id="165" name="Graphic 164">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18CF81D4-0889-8A4C-82B0-36262C7091A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A5000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10478,7 +10483,7 @@
         <xdr:cNvPr id="166" name="Graphic 165">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F15EBF2-D6A9-6842-9D23-92E3EAF19B15}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A6000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10528,7 +10533,7 @@
         <xdr:cNvPr id="168" name="Graphic 167">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A103D8D4-D9D7-B442-B1C2-0BBDCA8909E9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A8000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10581,7 +10586,7 @@
         <xdr:cNvPr id="170" name="Graphic 169">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49D59CA2-9596-5043-BD4F-96BAD323F944}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AA000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10634,7 +10639,7 @@
         <xdr:cNvPr id="171" name="Graphic 170">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FC8A522-759C-A144-8933-F9BBDF77E390}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AB000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10687,7 +10692,7 @@
         <xdr:cNvPr id="3" name="Graphic 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4119489-6971-164B-8F7C-DC3D34FE26C9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10737,7 +10742,7 @@
         <xdr:cNvPr id="4" name="Graphic 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46771E02-3552-AD42-BEB4-B8393878E922}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10760,6 +10765,1266 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="18163953" y="79995823"/>
+          <a:ext cx="457200" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>457200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Graphic 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId145">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId146"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18163953" y="40640000"/>
+          <a:ext cx="457200" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>457200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="167" name="Graphic 166">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A7000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId145">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId146"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18163953" y="41910000"/>
+          <a:ext cx="457200" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>457200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="169" name="Graphic 168">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A9000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId145">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId146"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18163953" y="43180000"/>
+          <a:ext cx="457200" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>457200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="172" name="Graphic 171">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AC000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId145">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId146"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18163953" y="43815000"/>
+          <a:ext cx="457200" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>457200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="173" name="Graphic 172">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AD000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId83">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId84"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18178162" y="103426054"/>
+          <a:ext cx="457200" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="457200" cy="457200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="174" name="Graphic 173">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AE000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId81">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId82"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18203333" y="97790000"/>
+          <a:ext cx="457200" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="457200" cy="457200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="175" name="Graphic 174">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AF000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId81">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId82"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18203333" y="97790000"/>
+          <a:ext cx="457200" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="457200" cy="457200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="176" name="Graphic 175">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B0000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId81">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId82"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18203333" y="97790000"/>
+          <a:ext cx="457200" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3860800</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>622300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>445394</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>444500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="177" name="Graphic 117">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B1000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId81">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId82"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18182465" y="97790000"/>
+          <a:ext cx="457200" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3860800</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>622300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>440267</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>436033</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="178" name="Graphic 117">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B2000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId81">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId82"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18182465" y="97790000"/>
+          <a:ext cx="457200" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3860800</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>622300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>440267</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>436034</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="179" name="Graphic 117">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B3000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId81">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId82"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18182465" y="97790000"/>
+          <a:ext cx="457200" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3860800</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>622300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>440267</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>436033</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="180" name="Graphic 117">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B4000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId81">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId82"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18182465" y="97790000"/>
+          <a:ext cx="457200" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3860800</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>622300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>440267</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>436034</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="181" name="Graphic 117">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B5000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId81">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId82"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18182465" y="97790000"/>
+          <a:ext cx="457200" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3860800</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>622300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>440267</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>436033</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="182" name="Graphic 117">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B6000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId81">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId82"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18182465" y="97790000"/>
+          <a:ext cx="457200" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3860800</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>622300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>440267</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>436034</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="183" name="Graphic 117">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B7000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId81">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId82"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18182465" y="97790000"/>
+          <a:ext cx="457200" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3860800</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>622300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>440267</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>436034</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="184" name="Graphic 117">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B8000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId81">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId82"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18182465" y="97790000"/>
+          <a:ext cx="457200" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3860800</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>622300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>440267</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>436033</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="185" name="Graphic 117">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B9000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId81">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId82"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18182465" y="97790000"/>
+          <a:ext cx="457200" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="457200" cy="457200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="186" name="Graphic 185">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BA000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18203333" y="10295467"/>
+          <a:ext cx="457200" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="457200" cy="457200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="187" name="Graphic 186">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BB000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18203333" y="10295467"/>
+          <a:ext cx="457200" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="457200" cy="457200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="189" name="Graphic 188">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BD000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId89">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId90"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18200150" y="146508346"/>
+          <a:ext cx="457200" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>230</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="457200" cy="457200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="190" name="Graphic 189">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BE000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId87">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId88"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18200150" y="145868571"/>
+          <a:ext cx="457200" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>394</xdr:row>
+      <xdr:rowOff>12380</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>394</xdr:row>
+      <xdr:rowOff>469580</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Graphic 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId147">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId148"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18185546" y="252304817"/>
+          <a:ext cx="457200" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>341</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>341</xdr:row>
+      <xdr:rowOff>457200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Graphic 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId149">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId150"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18203333" y="219422133"/>
+          <a:ext cx="457200" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>415</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>415</xdr:row>
+      <xdr:rowOff>457200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Graphic 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId151">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId152"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18186400" y="263525000"/>
+          <a:ext cx="457200" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>416</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="457200" cy="457200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="192" name="Graphic 191">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C0000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId151">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId152"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18186400" y="263525000"/>
+          <a:ext cx="457200" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>279</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>279</xdr:row>
+      <xdr:rowOff>457200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Graphic 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3541F7A0-D38E-0E4B-A930-7686592014C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId151">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId152"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18192479" y="178679231"/>
           <a:ext cx="457200" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11071,8 +12336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{693BBA9B-95F3-BD4A-928B-DD81DFE8C409}">
   <dimension ref="A1:I422"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="C57" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="50" customHeight="1" outlineLevelCol="1"/>
@@ -11129,10 +12394,10 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="50" customHeight="1">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="46" t="s">
         <v>828</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="46" t="s">
         <v>837</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -11150,8 +12415,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="50" customHeight="1">
-      <c r="A4" s="44"/>
-      <c r="B4" s="44"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="46"/>
       <c r="C4" s="8" t="s">
         <v>5</v>
       </c>
@@ -11167,8 +12432,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="50" customHeight="1">
-      <c r="A5" s="44"/>
-      <c r="B5" s="44"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="46"/>
       <c r="C5" s="8" t="s">
         <v>7</v>
       </c>
@@ -11184,8 +12449,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="50" customHeight="1">
-      <c r="A6" s="44"/>
-      <c r="B6" s="44"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="46"/>
       <c r="C6" s="8" t="s">
         <v>9</v>
       </c>
@@ -11201,8 +12466,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="50" customHeight="1">
-      <c r="A7" s="44"/>
-      <c r="B7" s="44"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="8" t="s">
         <v>11</v>
       </c>
@@ -11218,8 +12483,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="50" customHeight="1">
-      <c r="A8" s="44"/>
-      <c r="B8" s="44"/>
+      <c r="A8" s="46"/>
+      <c r="B8" s="46"/>
       <c r="C8" s="8" t="s">
         <v>13</v>
       </c>
@@ -11235,8 +12500,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="50" customHeight="1">
-      <c r="A9" s="44"/>
-      <c r="B9" s="44"/>
+      <c r="A9" s="46"/>
+      <c r="B9" s="46"/>
       <c r="C9" s="8" t="s">
         <v>15</v>
       </c>
@@ -11252,8 +12517,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="50" customHeight="1">
-      <c r="A10" s="44"/>
-      <c r="B10" s="44"/>
+      <c r="A10" s="46"/>
+      <c r="B10" s="46"/>
       <c r="C10" s="8" t="s">
         <v>17</v>
       </c>
@@ -11269,8 +12534,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="50" customHeight="1">
-      <c r="A11" s="44"/>
-      <c r="B11" s="44"/>
+      <c r="A11" s="46"/>
+      <c r="B11" s="46"/>
       <c r="C11" s="8" t="s">
         <v>19</v>
       </c>
@@ -11286,8 +12551,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="50" customHeight="1">
-      <c r="A12" s="44"/>
-      <c r="B12" s="44" t="s">
+      <c r="A12" s="46"/>
+      <c r="B12" s="46" t="s">
         <v>838</v>
       </c>
       <c r="C12" s="8" t="s">
@@ -11305,8 +12570,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="50" customHeight="1">
-      <c r="A13" s="44"/>
-      <c r="B13" s="44"/>
+      <c r="A13" s="46"/>
+      <c r="B13" s="46"/>
       <c r="C13" s="8" t="s">
         <v>23</v>
       </c>
@@ -11322,8 +12587,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="50" customHeight="1">
-      <c r="A14" s="44"/>
-      <c r="B14" s="44"/>
+      <c r="A14" s="46"/>
+      <c r="B14" s="46"/>
       <c r="C14" s="8" t="s">
         <v>25</v>
       </c>
@@ -11339,8 +12604,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="50" customHeight="1">
-      <c r="A15" s="44"/>
-      <c r="B15" s="44"/>
+      <c r="A15" s="46"/>
+      <c r="B15" s="46"/>
       <c r="C15" s="8" t="s">
         <v>27</v>
       </c>
@@ -11365,10 +12630,10 @@
       <c r="G16" s="13"/>
     </row>
     <row r="17" spans="1:7" ht="50" customHeight="1">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="45" t="s">
         <v>835</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="45" t="s">
         <v>840</v>
       </c>
       <c r="C17" s="8" t="s">
@@ -11386,8 +12651,8 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="50" customHeight="1">
-      <c r="A18" s="43"/>
-      <c r="B18" s="43"/>
+      <c r="A18" s="45"/>
+      <c r="B18" s="45"/>
       <c r="C18" s="8" t="s">
         <v>31</v>
       </c>
@@ -11403,8 +12668,8 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="50" customHeight="1">
-      <c r="A19" s="43"/>
-      <c r="B19" s="43"/>
+      <c r="A19" s="45"/>
+      <c r="B19" s="45"/>
       <c r="C19" s="8" t="s">
         <v>33</v>
       </c>
@@ -11420,8 +12685,8 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="50" customHeight="1">
-      <c r="A20" s="43"/>
-      <c r="B20" s="43"/>
+      <c r="A20" s="45"/>
+      <c r="B20" s="45"/>
       <c r="C20" s="8" t="s">
         <v>35</v>
       </c>
@@ -11437,8 +12702,8 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="50" customHeight="1">
-      <c r="A21" s="43"/>
-      <c r="B21" s="43"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="45"/>
       <c r="C21" s="8" t="s">
         <v>37</v>
       </c>
@@ -11454,23 +12719,25 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="50" customHeight="1">
-      <c r="A22" s="43"/>
-      <c r="B22" s="43"/>
+      <c r="A22" s="45"/>
+      <c r="B22" s="45"/>
       <c r="C22" s="8" t="s">
         <v>39</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="10"/>
+      <c r="E22" s="10" t="s">
+        <v>847</v>
+      </c>
       <c r="F22" s="10"/>
       <c r="G22" s="14" t="s">
         <v>848</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="50" customHeight="1">
-      <c r="A23" s="43"/>
-      <c r="B23" s="43"/>
+      <c r="A23" s="45"/>
+      <c r="B23" s="45"/>
       <c r="C23" s="8" t="s">
         <v>41</v>
       </c>
@@ -11486,8 +12753,8 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="50" customHeight="1">
-      <c r="A24" s="43"/>
-      <c r="B24" s="43"/>
+      <c r="A24" s="45"/>
+      <c r="B24" s="45"/>
       <c r="C24" s="8" t="s">
         <v>43</v>
       </c>
@@ -11503,23 +12770,25 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="50" customHeight="1">
-      <c r="A25" s="43"/>
-      <c r="B25" s="43"/>
+      <c r="A25" s="45"/>
+      <c r="B25" s="45"/>
       <c r="C25" s="8" t="s">
         <v>45</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="10"/>
+      <c r="E25" s="10" t="s">
+        <v>847</v>
+      </c>
       <c r="F25" s="10"/>
       <c r="G25" s="14" t="s">
         <v>848</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="50" customHeight="1">
-      <c r="A26" s="43"/>
-      <c r="B26" s="43"/>
+      <c r="A26" s="45"/>
+      <c r="B26" s="45"/>
       <c r="C26" s="15" t="s">
         <v>47</v>
       </c>
@@ -11527,15 +12796,15 @@
         <v>48</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="G26" s="14" t="s">
         <v>848</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="50" customHeight="1">
-      <c r="A27" s="43"/>
-      <c r="B27" s="43"/>
+      <c r="A27" s="45"/>
+      <c r="B27" s="45"/>
       <c r="C27" s="8" t="s">
         <v>49</v>
       </c>
@@ -11551,8 +12820,8 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="50" customHeight="1">
-      <c r="A28" s="43"/>
-      <c r="B28" s="43"/>
+      <c r="A28" s="45"/>
+      <c r="B28" s="45"/>
       <c r="C28" s="8" t="s">
         <v>51</v>
       </c>
@@ -11568,7 +12837,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="50" customHeight="1">
-      <c r="A29" s="43"/>
+      <c r="A29" s="45"/>
       <c r="B29" s="16" t="s">
         <v>841</v>
       </c>
@@ -11587,8 +12856,8 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="50" customHeight="1">
-      <c r="A30" s="43"/>
-      <c r="B30" s="43" t="s">
+      <c r="A30" s="45"/>
+      <c r="B30" s="45" t="s">
         <v>842</v>
       </c>
       <c r="C30" s="8" t="s">
@@ -11606,8 +12875,8 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="50" customHeight="1">
-      <c r="A31" s="43"/>
-      <c r="B31" s="43"/>
+      <c r="A31" s="45"/>
+      <c r="B31" s="45"/>
       <c r="C31" s="8" t="s">
         <v>57</v>
       </c>
@@ -11623,8 +12892,8 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="50" customHeight="1">
-      <c r="A32" s="43"/>
-      <c r="B32" s="43" t="s">
+      <c r="A32" s="45"/>
+      <c r="B32" s="45" t="s">
         <v>843</v>
       </c>
       <c r="C32" s="8" t="s">
@@ -11642,8 +12911,8 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="50" customHeight="1">
-      <c r="A33" s="43"/>
-      <c r="B33" s="43"/>
+      <c r="A33" s="45"/>
+      <c r="B33" s="45"/>
       <c r="C33" s="8" t="s">
         <v>61</v>
       </c>
@@ -11659,8 +12928,8 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="50" customHeight="1">
-      <c r="A34" s="43"/>
-      <c r="B34" s="43"/>
+      <c r="A34" s="45"/>
+      <c r="B34" s="45"/>
       <c r="C34" s="8" t="s">
         <v>63</v>
       </c>
@@ -11684,10 +12953,10 @@
       <c r="F35" s="10"/>
     </row>
     <row r="36" spans="1:7" ht="50" customHeight="1">
-      <c r="A36" s="43" t="s">
+      <c r="A36" s="45" t="s">
         <v>839</v>
       </c>
-      <c r="B36" s="43" t="s">
+      <c r="B36" s="45" t="s">
         <v>856</v>
       </c>
       <c r="C36" s="8" t="s">
@@ -11705,8 +12974,8 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="50" customHeight="1">
-      <c r="A37" s="43"/>
-      <c r="B37" s="43"/>
+      <c r="A37" s="45"/>
+      <c r="B37" s="45"/>
       <c r="C37" s="8" t="s">
         <v>67</v>
       </c>
@@ -11722,8 +12991,8 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="50" customHeight="1">
-      <c r="A38" s="43"/>
-      <c r="B38" s="43"/>
+      <c r="A38" s="45"/>
+      <c r="B38" s="45"/>
       <c r="C38" s="8" t="s">
         <v>69</v>
       </c>
@@ -11739,8 +13008,8 @@
       </c>
     </row>
     <row r="39" spans="1:7" ht="50" customHeight="1">
-      <c r="A39" s="43"/>
-      <c r="B39" s="43"/>
+      <c r="A39" s="45"/>
+      <c r="B39" s="45"/>
       <c r="C39" s="8" t="s">
         <v>71</v>
       </c>
@@ -11756,8 +13025,8 @@
       </c>
     </row>
     <row r="40" spans="1:7" ht="50" customHeight="1">
-      <c r="A40" s="43"/>
-      <c r="B40" s="43"/>
+      <c r="A40" s="45"/>
+      <c r="B40" s="45"/>
       <c r="C40" s="8" t="s">
         <v>73</v>
       </c>
@@ -11771,8 +13040,8 @@
       </c>
     </row>
     <row r="41" spans="1:7" ht="50" customHeight="1">
-      <c r="A41" s="43"/>
-      <c r="B41" s="43"/>
+      <c r="A41" s="45"/>
+      <c r="B41" s="45"/>
       <c r="C41" s="8" t="s">
         <v>75</v>
       </c>
@@ -11786,8 +13055,8 @@
       </c>
     </row>
     <row r="42" spans="1:7" ht="50" customHeight="1">
-      <c r="A42" s="43"/>
-      <c r="B42" s="43"/>
+      <c r="A42" s="45"/>
+      <c r="B42" s="45"/>
       <c r="C42" s="8" t="s">
         <v>77</v>
       </c>
@@ -11801,8 +13070,8 @@
       </c>
     </row>
     <row r="43" spans="1:7" ht="50" customHeight="1">
-      <c r="A43" s="43"/>
-      <c r="B43" s="43"/>
+      <c r="A43" s="45"/>
+      <c r="B43" s="45"/>
       <c r="C43" s="8" t="s">
         <v>79</v>
       </c>
@@ -11818,8 +13087,8 @@
       </c>
     </row>
     <row r="44" spans="1:7" ht="50" customHeight="1">
-      <c r="A44" s="43"/>
-      <c r="B44" s="43" t="s">
+      <c r="A44" s="45"/>
+      <c r="B44" s="45" t="s">
         <v>857</v>
       </c>
       <c r="C44" s="8" t="s">
@@ -11837,8 +13106,8 @@
       </c>
     </row>
     <row r="45" spans="1:7" ht="50" customHeight="1">
-      <c r="A45" s="43"/>
-      <c r="B45" s="43"/>
+      <c r="A45" s="45"/>
+      <c r="B45" s="45"/>
       <c r="C45" s="8" t="s">
         <v>83</v>
       </c>
@@ -11854,8 +13123,8 @@
       </c>
     </row>
     <row r="46" spans="1:7" ht="50" customHeight="1">
-      <c r="A46" s="43"/>
-      <c r="B46" s="43"/>
+      <c r="A46" s="45"/>
+      <c r="B46" s="45"/>
       <c r="C46" s="8" t="s">
         <v>85</v>
       </c>
@@ -11871,8 +13140,8 @@
       </c>
     </row>
     <row r="47" spans="1:7" ht="50" customHeight="1">
-      <c r="A47" s="43"/>
-      <c r="B47" s="43"/>
+      <c r="A47" s="45"/>
+      <c r="B47" s="45"/>
       <c r="C47" s="8" t="s">
         <v>87</v>
       </c>
@@ -11888,8 +13157,8 @@
       </c>
     </row>
     <row r="48" spans="1:7" ht="50" customHeight="1">
-      <c r="A48" s="43"/>
-      <c r="B48" s="43"/>
+      <c r="A48" s="45"/>
+      <c r="B48" s="45"/>
       <c r="C48" s="8" t="s">
         <v>89</v>
       </c>
@@ -11905,8 +13174,8 @@
       </c>
     </row>
     <row r="49" spans="1:7" ht="50" customHeight="1">
-      <c r="A49" s="43"/>
-      <c r="B49" s="43" t="s">
+      <c r="A49" s="45"/>
+      <c r="B49" s="45" t="s">
         <v>858</v>
       </c>
       <c r="C49" s="8" t="s">
@@ -11924,8 +13193,8 @@
       </c>
     </row>
     <row r="50" spans="1:7" ht="50" customHeight="1">
-      <c r="A50" s="43"/>
-      <c r="B50" s="43"/>
+      <c r="A50" s="45"/>
+      <c r="B50" s="45"/>
       <c r="C50" s="8" t="s">
         <v>93</v>
       </c>
@@ -11941,8 +13210,8 @@
       </c>
     </row>
     <row r="51" spans="1:7" ht="50" customHeight="1">
-      <c r="A51" s="43"/>
-      <c r="B51" s="43"/>
+      <c r="A51" s="45"/>
+      <c r="B51" s="45"/>
       <c r="C51" s="8" t="s">
         <v>95</v>
       </c>
@@ -11958,8 +13227,8 @@
       </c>
     </row>
     <row r="52" spans="1:7" ht="50" customHeight="1">
-      <c r="A52" s="43"/>
-      <c r="B52" s="43"/>
+      <c r="A52" s="45"/>
+      <c r="B52" s="45"/>
       <c r="C52" s="8" t="s">
         <v>97</v>
       </c>
@@ -11975,8 +13244,8 @@
       </c>
     </row>
     <row r="53" spans="1:7" ht="50" customHeight="1">
-      <c r="A53" s="43"/>
-      <c r="B53" s="43"/>
+      <c r="A53" s="45"/>
+      <c r="B53" s="45"/>
       <c r="C53" s="8" t="s">
         <v>99</v>
       </c>
@@ -11992,8 +13261,8 @@
       </c>
     </row>
     <row r="54" spans="1:7" ht="50" customHeight="1">
-      <c r="A54" s="43"/>
-      <c r="B54" s="43"/>
+      <c r="A54" s="45"/>
+      <c r="B54" s="45"/>
       <c r="C54" s="8" t="s">
         <v>101</v>
       </c>
@@ -12009,8 +13278,8 @@
       </c>
     </row>
     <row r="55" spans="1:7" ht="50" customHeight="1">
-      <c r="A55" s="43"/>
-      <c r="B55" s="43"/>
+      <c r="A55" s="45"/>
+      <c r="B55" s="45"/>
       <c r="C55" s="8" t="s">
         <v>103</v>
       </c>
@@ -12026,8 +13295,8 @@
       </c>
     </row>
     <row r="56" spans="1:7" ht="50" customHeight="1">
-      <c r="A56" s="43"/>
-      <c r="B56" s="43"/>
+      <c r="A56" s="45"/>
+      <c r="B56" s="45"/>
       <c r="C56" s="8" t="s">
         <v>105</v>
       </c>
@@ -12051,10 +13320,10 @@
       <c r="F57" s="10"/>
     </row>
     <row r="58" spans="1:7" ht="50" customHeight="1">
-      <c r="A58" s="37" t="s">
+      <c r="A58" s="39" t="s">
         <v>859</v>
       </c>
-      <c r="B58" s="37" t="s">
+      <c r="B58" s="39" t="s">
         <v>860</v>
       </c>
       <c r="C58" s="8" t="s">
@@ -12070,8 +13339,8 @@
       </c>
     </row>
     <row r="59" spans="1:7" ht="50" customHeight="1">
-      <c r="A59" s="38"/>
-      <c r="B59" s="38"/>
+      <c r="A59" s="40"/>
+      <c r="B59" s="40"/>
       <c r="C59" s="8" t="s">
         <v>109</v>
       </c>
@@ -12085,8 +13354,8 @@
       </c>
     </row>
     <row r="60" spans="1:7" ht="50" customHeight="1">
-      <c r="A60" s="38"/>
-      <c r="B60" s="38"/>
+      <c r="A60" s="40"/>
+      <c r="B60" s="40"/>
       <c r="C60" s="8" t="s">
         <v>111</v>
       </c>
@@ -12100,8 +13369,8 @@
       </c>
     </row>
     <row r="61" spans="1:7" ht="50" customHeight="1">
-      <c r="A61" s="38"/>
-      <c r="B61" s="38"/>
+      <c r="A61" s="40"/>
+      <c r="B61" s="40"/>
       <c r="C61" s="8" t="s">
         <v>113</v>
       </c>
@@ -12109,7 +13378,7 @@
         <v>114</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="F61" s="10"/>
       <c r="G61" s="23" t="s">
@@ -12117,8 +13386,8 @@
       </c>
     </row>
     <row r="62" spans="1:7" ht="50" customHeight="1">
-      <c r="A62" s="38"/>
-      <c r="B62" s="38"/>
+      <c r="A62" s="40"/>
+      <c r="B62" s="40"/>
       <c r="C62" s="8" t="s">
         <v>115</v>
       </c>
@@ -12132,8 +13401,8 @@
       </c>
     </row>
     <row r="63" spans="1:7" ht="50" customHeight="1">
-      <c r="A63" s="38"/>
-      <c r="B63" s="38"/>
+      <c r="A63" s="40"/>
+      <c r="B63" s="40"/>
       <c r="C63" s="8" t="s">
         <v>117</v>
       </c>
@@ -12147,8 +13416,8 @@
       </c>
     </row>
     <row r="64" spans="1:7" ht="50" customHeight="1">
-      <c r="A64" s="38"/>
-      <c r="B64" s="39"/>
+      <c r="A64" s="40"/>
+      <c r="B64" s="41"/>
       <c r="C64" s="8" t="s">
         <v>119</v>
       </c>
@@ -12162,8 +13431,8 @@
       </c>
     </row>
     <row r="65" spans="1:7" ht="50" customHeight="1">
-      <c r="A65" s="38"/>
-      <c r="B65" s="37" t="s">
+      <c r="A65" s="40"/>
+      <c r="B65" s="39" t="s">
         <v>861</v>
       </c>
       <c r="C65" s="8" t="s">
@@ -12172,15 +13441,17 @@
       <c r="D65" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="E65" s="10"/>
+      <c r="E65" s="10" t="s">
+        <v>980</v>
+      </c>
       <c r="F65" s="10"/>
       <c r="G65" s="22" t="s">
         <v>870</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="50" customHeight="1">
-      <c r="A66" s="38"/>
-      <c r="B66" s="38"/>
+      <c r="A66" s="40"/>
+      <c r="B66" s="40"/>
       <c r="C66" s="8" t="s">
         <v>123</v>
       </c>
@@ -12188,7 +13459,7 @@
         <v>124</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>877</v>
+        <v>986</v>
       </c>
       <c r="F66" s="10"/>
       <c r="G66" s="22" t="s">
@@ -12196,22 +13467,24 @@
       </c>
     </row>
     <row r="67" spans="1:7" ht="50" customHeight="1">
-      <c r="A67" s="38"/>
-      <c r="B67" s="39"/>
+      <c r="A67" s="40"/>
+      <c r="B67" s="41"/>
       <c r="C67" s="8" t="s">
         <v>125</v>
       </c>
       <c r="D67" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="E67" s="10"/>
+      <c r="E67" s="10" t="s">
+        <v>980</v>
+      </c>
       <c r="F67" s="10"/>
       <c r="G67" s="22" t="s">
         <v>870</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="50" customHeight="1">
-      <c r="A68" s="38"/>
+      <c r="A68" s="40"/>
       <c r="B68" s="16" t="s">
         <v>862</v>
       </c>
@@ -12228,7 +13501,7 @@
       </c>
     </row>
     <row r="69" spans="1:7" ht="50" customHeight="1">
-      <c r="A69" s="38"/>
+      <c r="A69" s="40"/>
       <c r="B69" s="16" t="s">
         <v>863</v>
       </c>
@@ -12238,14 +13511,16 @@
       <c r="D69" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="E69" s="10"/>
+      <c r="E69" s="10" t="s">
+        <v>980</v>
+      </c>
       <c r="F69" s="10"/>
       <c r="G69" s="22" t="s">
         <v>870</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="50" customHeight="1">
-      <c r="A70" s="39"/>
+      <c r="A70" s="41"/>
       <c r="B70" s="16" t="s">
         <v>864</v>
       </c>
@@ -12255,7 +13530,9 @@
       <c r="D70" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="E70" s="10"/>
+      <c r="E70" s="10" t="s">
+        <v>980</v>
+      </c>
       <c r="F70" s="10"/>
       <c r="G70" s="22" t="s">
         <v>870</v>
@@ -12270,10 +13547,10 @@
       <c r="F71" s="10"/>
     </row>
     <row r="72" spans="1:7" ht="50" customHeight="1">
-      <c r="A72" s="37" t="s">
+      <c r="A72" s="39" t="s">
         <v>872</v>
       </c>
-      <c r="B72" s="37" t="s">
+      <c r="B72" s="39" t="s">
         <v>874</v>
       </c>
       <c r="C72" s="8" t="s">
@@ -12283,16 +13560,16 @@
         <v>134</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="F72" s="10"/>
       <c r="G72" s="26" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="50" customHeight="1">
-      <c r="A73" s="38"/>
-      <c r="B73" s="38"/>
+      <c r="A73" s="40"/>
+      <c r="B73" s="40"/>
       <c r="C73" s="8" t="s">
         <v>135</v>
       </c>
@@ -12300,16 +13577,16 @@
         <v>136</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="F73" s="10"/>
       <c r="G73" s="26" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="50" customHeight="1">
-      <c r="A74" s="38"/>
-      <c r="B74" s="39"/>
+      <c r="A74" s="40"/>
+      <c r="B74" s="41"/>
       <c r="C74" s="8" t="s">
         <v>137</v>
       </c>
@@ -12317,16 +13594,16 @@
         <v>138</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="F74" s="10"/>
       <c r="G74" s="26" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="50" customHeight="1">
-      <c r="A75" s="38"/>
-      <c r="B75" s="37" t="s">
+      <c r="A75" s="40"/>
+      <c r="B75" s="39" t="s">
         <v>873</v>
       </c>
       <c r="C75" s="8" t="s">
@@ -12336,16 +13613,16 @@
         <v>140</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="F75" s="10"/>
       <c r="G75" s="26" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="50" customHeight="1">
-      <c r="A76" s="38"/>
-      <c r="B76" s="38"/>
+      <c r="A76" s="40"/>
+      <c r="B76" s="40"/>
       <c r="C76" s="8" t="s">
         <v>141</v>
       </c>
@@ -12353,16 +13630,16 @@
         <v>142</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="F76" s="10"/>
       <c r="G76" s="26" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="50" customHeight="1">
-      <c r="A77" s="38"/>
-      <c r="B77" s="38"/>
+      <c r="A77" s="40"/>
+      <c r="B77" s="40"/>
       <c r="C77" s="8" t="s">
         <v>143</v>
       </c>
@@ -12370,16 +13647,16 @@
         <v>144</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="F77" s="10"/>
       <c r="G77" s="26" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="50" customHeight="1">
-      <c r="A78" s="38"/>
-      <c r="B78" s="38"/>
+      <c r="A78" s="40"/>
+      <c r="B78" s="40"/>
       <c r="C78" s="8" t="s">
         <v>145</v>
       </c>
@@ -12387,16 +13664,16 @@
         <v>146</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F78" s="10"/>
       <c r="G78" s="26" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="50" customHeight="1">
-      <c r="A79" s="38"/>
-      <c r="B79" s="38"/>
+      <c r="A79" s="40"/>
+      <c r="B79" s="40"/>
       <c r="C79" s="8" t="s">
         <v>147</v>
       </c>
@@ -12404,16 +13681,16 @@
         <v>148</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F79" s="10"/>
       <c r="G79" s="26" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="50" customHeight="1">
-      <c r="A80" s="38"/>
-      <c r="B80" s="38"/>
+      <c r="A80" s="40"/>
+      <c r="B80" s="40"/>
       <c r="C80" s="8" t="s">
         <v>149</v>
       </c>
@@ -12423,12 +13700,12 @@
       <c r="E80" s="10"/>
       <c r="F80" s="10"/>
       <c r="G80" s="26" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="50" customHeight="1">
-      <c r="A81" s="38"/>
-      <c r="B81" s="38"/>
+      <c r="A81" s="40"/>
+      <c r="B81" s="40"/>
       <c r="C81" s="8" t="s">
         <v>151</v>
       </c>
@@ -12438,12 +13715,12 @@
       <c r="E81" s="10"/>
       <c r="F81" s="10"/>
       <c r="G81" s="26" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="50" customHeight="1">
-      <c r="A82" s="38"/>
-      <c r="B82" s="38"/>
+      <c r="A82" s="40"/>
+      <c r="B82" s="40"/>
       <c r="C82" s="8" t="s">
         <v>153</v>
       </c>
@@ -12451,16 +13728,16 @@
         <v>154</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="F82" s="10"/>
       <c r="G82" s="26" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="50" customHeight="1">
-      <c r="A83" s="38"/>
-      <c r="B83" s="38"/>
+      <c r="A83" s="40"/>
+      <c r="B83" s="40"/>
       <c r="C83" s="8" t="s">
         <v>155</v>
       </c>
@@ -12470,12 +13747,12 @@
       <c r="E83" s="10"/>
       <c r="F83" s="10"/>
       <c r="G83" s="26" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="50" customHeight="1">
-      <c r="A84" s="38"/>
-      <c r="B84" s="38"/>
+      <c r="A84" s="40"/>
+      <c r="B84" s="40"/>
       <c r="C84" s="8" t="s">
         <v>157</v>
       </c>
@@ -12483,16 +13760,16 @@
         <v>158</v>
       </c>
       <c r="E84" s="10" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="F84" s="10"/>
       <c r="G84" s="26" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="50" customHeight="1">
-      <c r="A85" s="38"/>
-      <c r="B85" s="38"/>
+      <c r="A85" s="40"/>
+      <c r="B85" s="40"/>
       <c r="C85" s="8" t="s">
         <v>159</v>
       </c>
@@ -12500,16 +13777,16 @@
         <v>160</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="F85" s="10"/>
       <c r="G85" s="26" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="50" customHeight="1">
-      <c r="A86" s="38"/>
-      <c r="B86" s="38"/>
+      <c r="A86" s="40"/>
+      <c r="B86" s="40"/>
       <c r="C86" s="8" t="s">
         <v>161</v>
       </c>
@@ -12517,16 +13794,16 @@
         <v>162</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="F86" s="10"/>
       <c r="G86" s="26" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="50" customHeight="1">
-      <c r="A87" s="38"/>
-      <c r="B87" s="38"/>
+      <c r="A87" s="40"/>
+      <c r="B87" s="40"/>
       <c r="C87" s="8" t="s">
         <v>163</v>
       </c>
@@ -12534,19 +13811,19 @@
         <v>164</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="F87" s="10"/>
       <c r="G87" s="26" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="I87" t="s">
         <v>825</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="50" customHeight="1">
-      <c r="A88" s="38"/>
-      <c r="B88" s="38"/>
+      <c r="A88" s="40"/>
+      <c r="B88" s="40"/>
       <c r="C88" s="8" t="s">
         <v>165</v>
       </c>
@@ -12556,12 +13833,12 @@
       <c r="E88" s="10"/>
       <c r="F88" s="10"/>
       <c r="G88" s="26" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="50" customHeight="1">
-      <c r="A89" s="38"/>
-      <c r="B89" s="38"/>
+      <c r="A89" s="40"/>
+      <c r="B89" s="40"/>
       <c r="C89" s="8" t="s">
         <v>167</v>
       </c>
@@ -12569,16 +13846,16 @@
         <v>168</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="F89" s="10"/>
       <c r="G89" s="26" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="50" customHeight="1">
-      <c r="A90" s="38"/>
-      <c r="B90" s="38"/>
+      <c r="A90" s="40"/>
+      <c r="B90" s="40"/>
       <c r="C90" s="8" t="s">
         <v>169</v>
       </c>
@@ -12586,16 +13863,16 @@
         <v>170</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="F90" s="10"/>
       <c r="G90" s="26" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="50" customHeight="1">
-      <c r="A91" s="38"/>
-      <c r="B91" s="38"/>
+      <c r="A91" s="40"/>
+      <c r="B91" s="40"/>
       <c r="C91" s="8" t="s">
         <v>171</v>
       </c>
@@ -12605,12 +13882,12 @@
       <c r="E91" s="10"/>
       <c r="F91" s="10"/>
       <c r="G91" s="26" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="50" customHeight="1">
-      <c r="A92" s="38"/>
-      <c r="B92" s="38"/>
+      <c r="A92" s="40"/>
+      <c r="B92" s="40"/>
       <c r="C92" s="8" t="s">
         <v>173</v>
       </c>
@@ -12618,16 +13895,16 @@
         <v>174</v>
       </c>
       <c r="E92" s="10" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="F92" s="10"/>
       <c r="G92" s="26" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="50" customHeight="1">
-      <c r="A93" s="38"/>
-      <c r="B93" s="38"/>
+      <c r="A93" s="40"/>
+      <c r="B93" s="40"/>
       <c r="C93" s="8" t="s">
         <v>175</v>
       </c>
@@ -12635,16 +13912,16 @@
         <v>176</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="F93" s="10"/>
       <c r="G93" s="26" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="50" customHeight="1">
-      <c r="A94" s="38"/>
-      <c r="B94" s="38"/>
+      <c r="A94" s="40"/>
+      <c r="B94" s="40"/>
       <c r="C94" s="8" t="s">
         <v>177</v>
       </c>
@@ -12654,12 +13931,12 @@
       <c r="E94" s="10"/>
       <c r="F94" s="10"/>
       <c r="G94" s="26" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="50" customHeight="1">
-      <c r="A95" s="38"/>
-      <c r="B95" s="38"/>
+      <c r="A95" s="40"/>
+      <c r="B95" s="40"/>
       <c r="C95" s="8" t="s">
         <v>179</v>
       </c>
@@ -12667,16 +13944,16 @@
         <v>180</v>
       </c>
       <c r="E95" s="10" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F95" s="10"/>
       <c r="G95" s="26" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="50" customHeight="1">
-      <c r="A96" s="38"/>
-      <c r="B96" s="38"/>
+      <c r="A96" s="40"/>
+      <c r="B96" s="40"/>
       <c r="C96" s="8" t="s">
         <v>181</v>
       </c>
@@ -12686,12 +13963,12 @@
       <c r="E96" s="10"/>
       <c r="F96" s="10"/>
       <c r="G96" s="26" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="50" customHeight="1">
-      <c r="A97" s="38"/>
-      <c r="B97" s="39"/>
+      <c r="A97" s="40"/>
+      <c r="B97" s="41"/>
       <c r="C97" s="8" t="s">
         <v>183</v>
       </c>
@@ -12701,12 +13978,12 @@
       <c r="E97" s="10"/>
       <c r="F97" s="10"/>
       <c r="G97" s="26" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="50" customHeight="1">
-      <c r="A98" s="38"/>
-      <c r="B98" s="37" t="s">
+      <c r="A98" s="40"/>
+      <c r="B98" s="39" t="s">
         <v>875</v>
       </c>
       <c r="C98" s="8" t="s">
@@ -12718,12 +13995,12 @@
       <c r="E98" s="10"/>
       <c r="F98" s="10"/>
       <c r="G98" s="26" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="50" customHeight="1">
-      <c r="A99" s="38"/>
-      <c r="B99" s="38"/>
+      <c r="A99" s="40"/>
+      <c r="B99" s="40"/>
       <c r="C99" s="8" t="s">
         <v>187</v>
       </c>
@@ -12733,12 +14010,12 @@
       <c r="E99" s="10"/>
       <c r="F99" s="10"/>
       <c r="G99" s="26" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="50" customHeight="1">
-      <c r="A100" s="38"/>
-      <c r="B100" s="38"/>
+      <c r="A100" s="40"/>
+      <c r="B100" s="40"/>
       <c r="C100" s="8" t="s">
         <v>189</v>
       </c>
@@ -12748,12 +14025,12 @@
       <c r="E100" s="10"/>
       <c r="F100" s="10"/>
       <c r="G100" s="26" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="50" customHeight="1">
-      <c r="A101" s="38"/>
-      <c r="B101" s="38"/>
+      <c r="A101" s="40"/>
+      <c r="B101" s="40"/>
       <c r="C101" s="8" t="s">
         <v>191</v>
       </c>
@@ -12763,12 +14040,12 @@
       <c r="E101" s="10"/>
       <c r="F101" s="10"/>
       <c r="G101" s="26" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="50" customHeight="1">
-      <c r="A102" s="38"/>
-      <c r="B102" s="38"/>
+      <c r="A102" s="40"/>
+      <c r="B102" s="40"/>
       <c r="C102" s="8" t="s">
         <v>193</v>
       </c>
@@ -12778,12 +14055,12 @@
       <c r="E102" s="10"/>
       <c r="F102" s="10"/>
       <c r="G102" s="26" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="50" customHeight="1">
-      <c r="A103" s="38"/>
-      <c r="B103" s="38"/>
+      <c r="A103" s="40"/>
+      <c r="B103" s="40"/>
       <c r="C103" s="8" t="s">
         <v>195</v>
       </c>
@@ -12793,12 +14070,12 @@
       <c r="E103" s="10"/>
       <c r="F103" s="10"/>
       <c r="G103" s="26" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="50" customHeight="1">
-      <c r="A104" s="38"/>
-      <c r="B104" s="38"/>
+      <c r="A104" s="40"/>
+      <c r="B104" s="40"/>
       <c r="C104" s="8" t="s">
         <v>197</v>
       </c>
@@ -12808,12 +14085,12 @@
       <c r="E104" s="10"/>
       <c r="F104" s="10"/>
       <c r="G104" s="26" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="50" customHeight="1">
-      <c r="A105" s="38"/>
-      <c r="B105" s="38"/>
+      <c r="A105" s="40"/>
+      <c r="B105" s="40"/>
       <c r="C105" s="8" t="s">
         <v>199</v>
       </c>
@@ -12823,12 +14100,12 @@
       <c r="E105" s="10"/>
       <c r="F105" s="10"/>
       <c r="G105" s="26" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="50" customHeight="1">
-      <c r="A106" s="38"/>
-      <c r="B106" s="38"/>
+      <c r="A106" s="40"/>
+      <c r="B106" s="40"/>
       <c r="C106" s="8" t="s">
         <v>201</v>
       </c>
@@ -12838,12 +14115,12 @@
       <c r="E106" s="10"/>
       <c r="F106" s="10"/>
       <c r="G106" s="26" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="50" customHeight="1">
-      <c r="A107" s="38"/>
-      <c r="B107" s="39"/>
+      <c r="A107" s="40"/>
+      <c r="B107" s="41"/>
       <c r="C107" s="8" t="s">
         <v>203</v>
       </c>
@@ -12853,12 +14130,12 @@
       <c r="E107" s="10"/>
       <c r="F107" s="10"/>
       <c r="G107" s="26" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="50" customHeight="1">
-      <c r="A108" s="38"/>
-      <c r="B108" s="37" t="s">
+      <c r="A108" s="40"/>
+      <c r="B108" s="39" t="s">
         <v>876</v>
       </c>
       <c r="C108" s="8" t="s">
@@ -12868,16 +14145,16 @@
         <v>206</v>
       </c>
       <c r="E108" s="10" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="F108" s="10"/>
       <c r="G108" s="25" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="50" customHeight="1">
-      <c r="A109" s="38"/>
-      <c r="B109" s="38"/>
+      <c r="A109" s="40"/>
+      <c r="B109" s="40"/>
       <c r="C109" s="8" t="s">
         <v>207</v>
       </c>
@@ -12885,16 +14162,16 @@
         <v>208</v>
       </c>
       <c r="E109" s="10" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="F109" s="10"/>
       <c r="G109" s="25" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="50" customHeight="1">
-      <c r="A110" s="38"/>
-      <c r="B110" s="38"/>
+      <c r="A110" s="40"/>
+      <c r="B110" s="40"/>
       <c r="C110" s="8" t="s">
         <v>209</v>
       </c>
@@ -12902,16 +14179,16 @@
         <v>210</v>
       </c>
       <c r="E110" s="10" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="F110" s="10"/>
       <c r="G110" s="25" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="50" customHeight="1">
-      <c r="A111" s="38"/>
-      <c r="B111" s="38"/>
+      <c r="A111" s="40"/>
+      <c r="B111" s="40"/>
       <c r="C111" s="8" t="s">
         <v>211</v>
       </c>
@@ -12919,16 +14196,16 @@
         <v>212</v>
       </c>
       <c r="E111" s="10" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F111" s="10"/>
       <c r="G111" s="25" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="50" customHeight="1">
-      <c r="A112" s="38"/>
-      <c r="B112" s="38"/>
+      <c r="A112" s="40"/>
+      <c r="B112" s="40"/>
       <c r="C112" s="8" t="s">
         <v>213</v>
       </c>
@@ -12936,16 +14213,16 @@
         <v>214</v>
       </c>
       <c r="E112" s="10" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="F112" s="10"/>
       <c r="G112" s="25" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="50" customHeight="1">
-      <c r="A113" s="39"/>
-      <c r="B113" s="39"/>
+      <c r="A113" s="41"/>
+      <c r="B113" s="41"/>
       <c r="C113" s="8" t="s">
         <v>215</v>
       </c>
@@ -12953,11 +14230,11 @@
         <v>216</v>
       </c>
       <c r="E113" s="10" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="F113" s="10"/>
       <c r="G113" s="25" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="50" customHeight="1">
@@ -12968,11 +14245,11 @@
       <c r="F114" s="10"/>
     </row>
     <row r="115" spans="1:7" ht="50" customHeight="1">
-      <c r="A115" s="37" t="s">
+      <c r="A115" s="39" t="s">
+        <v>878</v>
+      </c>
+      <c r="B115" s="39" t="s">
         <v>879</v>
-      </c>
-      <c r="B115" s="37" t="s">
-        <v>880</v>
       </c>
       <c r="C115" s="8" t="s">
         <v>217</v>
@@ -12981,16 +14258,16 @@
         <v>218</v>
       </c>
       <c r="E115" s="10" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="F115" s="10"/>
       <c r="G115" s="27" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="50" customHeight="1">
-      <c r="A116" s="38"/>
-      <c r="B116" s="38"/>
+      <c r="A116" s="40"/>
+      <c r="B116" s="40"/>
       <c r="C116" s="8" t="s">
         <v>219</v>
       </c>
@@ -12998,16 +14275,16 @@
         <v>220</v>
       </c>
       <c r="E116" s="10" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="F116" s="10"/>
       <c r="G116" s="27" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="50" customHeight="1">
-      <c r="A117" s="38"/>
-      <c r="B117" s="39"/>
+      <c r="A117" s="40"/>
+      <c r="B117" s="41"/>
       <c r="C117" s="8" t="s">
         <v>221</v>
       </c>
@@ -13015,17 +14292,17 @@
         <v>222</v>
       </c>
       <c r="E117" s="10" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="F117" s="10"/>
       <c r="G117" s="27" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="50" customHeight="1">
-      <c r="A118" s="38"/>
-      <c r="B118" s="37" t="s">
-        <v>881</v>
+      <c r="A118" s="40"/>
+      <c r="B118" s="39" t="s">
+        <v>880</v>
       </c>
       <c r="C118" s="8" t="s">
         <v>223</v>
@@ -13034,16 +14311,16 @@
         <v>224</v>
       </c>
       <c r="E118" s="10" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="F118" s="10"/>
       <c r="G118" s="27" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="50" customHeight="1">
-      <c r="A119" s="38"/>
-      <c r="B119" s="38"/>
+      <c r="A119" s="40"/>
+      <c r="B119" s="40"/>
       <c r="C119" s="8" t="s">
         <v>225</v>
       </c>
@@ -13051,16 +14328,16 @@
         <v>226</v>
       </c>
       <c r="E119" s="10" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="F119" s="10"/>
       <c r="G119" s="27" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="50" customHeight="1">
-      <c r="A120" s="38"/>
-      <c r="B120" s="38"/>
+      <c r="A120" s="40"/>
+      <c r="B120" s="40"/>
       <c r="C120" s="8" t="s">
         <v>227</v>
       </c>
@@ -13068,16 +14345,16 @@
         <v>228</v>
       </c>
       <c r="E120" s="10" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="F120" s="10"/>
       <c r="G120" s="27" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="50" customHeight="1">
-      <c r="A121" s="38"/>
-      <c r="B121" s="38"/>
+      <c r="A121" s="40"/>
+      <c r="B121" s="40"/>
       <c r="C121" s="8" t="s">
         <v>229</v>
       </c>
@@ -13085,16 +14362,16 @@
         <v>230</v>
       </c>
       <c r="E121" s="10" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="F121" s="10"/>
       <c r="G121" s="27" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="50" customHeight="1">
-      <c r="A122" s="38"/>
-      <c r="B122" s="38"/>
+      <c r="A122" s="40"/>
+      <c r="B122" s="40"/>
       <c r="C122" s="8" t="s">
         <v>231</v>
       </c>
@@ -13102,16 +14379,16 @@
         <v>232</v>
       </c>
       <c r="E122" s="10" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="F122" s="10"/>
       <c r="G122" s="27" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="50" customHeight="1">
-      <c r="A123" s="38"/>
-      <c r="B123" s="38"/>
+      <c r="A123" s="40"/>
+      <c r="B123" s="40"/>
       <c r="C123" s="8" t="s">
         <v>233</v>
       </c>
@@ -13119,16 +14396,16 @@
         <v>234</v>
       </c>
       <c r="E123" s="10" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="F123" s="10"/>
       <c r="G123" s="27" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="50" customHeight="1">
-      <c r="A124" s="38"/>
-      <c r="B124" s="38"/>
+      <c r="A124" s="40"/>
+      <c r="B124" s="40"/>
       <c r="C124" s="8" t="s">
         <v>235</v>
       </c>
@@ -13136,11 +14413,11 @@
         <v>236</v>
       </c>
       <c r="E124" s="10" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="F124" s="10"/>
       <c r="G124" s="27" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="50" customHeight="1">
@@ -13152,11 +14429,11 @@
       <c r="F125" s="10"/>
     </row>
     <row r="126" spans="1:7" ht="50" customHeight="1">
-      <c r="A126" s="38" t="s">
+      <c r="A126" s="40" t="s">
+        <v>902</v>
+      </c>
+      <c r="B126" s="40" t="s">
         <v>903</v>
-      </c>
-      <c r="B126" s="38" t="s">
-        <v>904</v>
       </c>
       <c r="C126" s="8" t="s">
         <v>237</v>
@@ -13165,16 +14442,16 @@
         <v>238</v>
       </c>
       <c r="E126" s="10" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="F126" s="10"/>
       <c r="G126" s="28" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="50" customHeight="1">
-      <c r="A127" s="38"/>
-      <c r="B127" s="38"/>
+      <c r="A127" s="40"/>
+      <c r="B127" s="40"/>
       <c r="C127" s="8" t="s">
         <v>239</v>
       </c>
@@ -13182,16 +14459,16 @@
         <v>240</v>
       </c>
       <c r="E127" s="10" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="F127" s="10"/>
       <c r="G127" s="28" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="50" customHeight="1">
-      <c r="A128" s="38"/>
-      <c r="B128" s="38"/>
+      <c r="A128" s="40"/>
+      <c r="B128" s="40"/>
       <c r="C128" s="8" t="s">
         <v>241</v>
       </c>
@@ -13201,12 +14478,12 @@
       <c r="E128" s="10"/>
       <c r="F128" s="10"/>
       <c r="G128" s="28" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="50" customHeight="1">
-      <c r="A129" s="38"/>
-      <c r="B129" s="38"/>
+      <c r="A129" s="40"/>
+      <c r="B129" s="40"/>
       <c r="C129" s="8" t="s">
         <v>243</v>
       </c>
@@ -13214,16 +14491,16 @@
         <v>244</v>
       </c>
       <c r="E129" s="10" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="F129" s="10"/>
       <c r="G129" s="28" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="50" customHeight="1">
-      <c r="A130" s="38"/>
-      <c r="B130" s="38"/>
+      <c r="A130" s="40"/>
+      <c r="B130" s="40"/>
       <c r="C130" s="8" t="s">
         <v>245</v>
       </c>
@@ -13231,16 +14508,16 @@
         <v>246</v>
       </c>
       <c r="E130" s="10" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="F130" s="10"/>
       <c r="G130" s="28" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="50" customHeight="1">
-      <c r="A131" s="38"/>
-      <c r="B131" s="38"/>
+      <c r="A131" s="40"/>
+      <c r="B131" s="40"/>
       <c r="C131" s="8" t="s">
         <v>247</v>
       </c>
@@ -13250,12 +14527,12 @@
       <c r="E131" s="10"/>
       <c r="F131" s="10"/>
       <c r="G131" s="28" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="50" customHeight="1">
-      <c r="A132" s="38"/>
-      <c r="B132" s="38"/>
+      <c r="A132" s="40"/>
+      <c r="B132" s="40"/>
       <c r="C132" s="8" t="s">
         <v>249</v>
       </c>
@@ -13265,12 +14542,12 @@
       <c r="E132" s="10"/>
       <c r="F132" s="10"/>
       <c r="G132" s="28" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="50" customHeight="1">
-      <c r="A133" s="38"/>
-      <c r="B133" s="38"/>
+      <c r="A133" s="40"/>
+      <c r="B133" s="40"/>
       <c r="C133" s="8" t="s">
         <v>251</v>
       </c>
@@ -13278,16 +14555,16 @@
         <v>252</v>
       </c>
       <c r="E133" s="10" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="F133" s="10"/>
       <c r="G133" s="28" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="50" customHeight="1">
-      <c r="A134" s="38"/>
-      <c r="B134" s="38"/>
+      <c r="A134" s="40"/>
+      <c r="B134" s="40"/>
       <c r="C134" s="8" t="s">
         <v>253</v>
       </c>
@@ -13297,12 +14574,12 @@
       <c r="E134" s="10"/>
       <c r="F134" s="10"/>
       <c r="G134" s="28" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="50" customHeight="1">
-      <c r="A135" s="38"/>
-      <c r="B135" s="38"/>
+      <c r="A135" s="40"/>
+      <c r="B135" s="40"/>
       <c r="C135" s="8" t="s">
         <v>255</v>
       </c>
@@ -13312,12 +14589,12 @@
       <c r="E135" s="10"/>
       <c r="F135" s="10"/>
       <c r="G135" s="28" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="50" customHeight="1">
-      <c r="A136" s="38"/>
-      <c r="B136" s="38"/>
+      <c r="A136" s="40"/>
+      <c r="B136" s="40"/>
       <c r="C136" s="8" t="s">
         <v>257</v>
       </c>
@@ -13327,12 +14604,12 @@
       <c r="E136" s="10"/>
       <c r="F136" s="10"/>
       <c r="G136" s="28" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="50" customHeight="1">
-      <c r="A137" s="38"/>
-      <c r="B137" s="38"/>
+      <c r="A137" s="40"/>
+      <c r="B137" s="40"/>
       <c r="C137" s="8" t="s">
         <v>259</v>
       </c>
@@ -13340,16 +14617,16 @@
         <v>260</v>
       </c>
       <c r="E137" s="10" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="F137" s="10"/>
       <c r="G137" s="28" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="50" customHeight="1">
-      <c r="A138" s="38"/>
-      <c r="B138" s="38"/>
+      <c r="A138" s="40"/>
+      <c r="B138" s="40"/>
       <c r="C138" s="8" t="s">
         <v>261</v>
       </c>
@@ -13359,12 +14636,12 @@
       <c r="E138" s="10"/>
       <c r="F138" s="10"/>
       <c r="G138" s="28" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="50" customHeight="1">
-      <c r="A139" s="38"/>
-      <c r="B139" s="38"/>
+      <c r="A139" s="40"/>
+      <c r="B139" s="40"/>
       <c r="C139" s="8" t="s">
         <v>263</v>
       </c>
@@ -13374,12 +14651,12 @@
       <c r="E139" s="10"/>
       <c r="F139" s="10"/>
       <c r="G139" s="28" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="50" customHeight="1">
-      <c r="A140" s="38"/>
-      <c r="B140" s="39"/>
+      <c r="A140" s="40"/>
+      <c r="B140" s="41"/>
       <c r="C140" s="8" t="s">
         <v>265</v>
       </c>
@@ -13389,13 +14666,13 @@
       <c r="E140" s="10"/>
       <c r="F140" s="10"/>
       <c r="G140" s="28" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="50" customHeight="1">
-      <c r="A141" s="38"/>
-      <c r="B141" s="37" t="s">
-        <v>905</v>
+      <c r="A141" s="40"/>
+      <c r="B141" s="39" t="s">
+        <v>904</v>
       </c>
       <c r="C141" s="8" t="s">
         <v>267</v>
@@ -13404,16 +14681,16 @@
         <v>268</v>
       </c>
       <c r="E141" s="10" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F141" s="10"/>
       <c r="G141" s="28" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="50" customHeight="1">
-      <c r="A142" s="38"/>
-      <c r="B142" s="38"/>
+      <c r="A142" s="40"/>
+      <c r="B142" s="40"/>
       <c r="C142" s="8" t="s">
         <v>269</v>
       </c>
@@ -13421,16 +14698,16 @@
         <v>270</v>
       </c>
       <c r="E142" s="10" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F142" s="10"/>
       <c r="G142" s="28" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="50" customHeight="1">
-      <c r="A143" s="38"/>
-      <c r="B143" s="38"/>
+      <c r="A143" s="40"/>
+      <c r="B143" s="40"/>
       <c r="C143" s="8" t="s">
         <v>271</v>
       </c>
@@ -13438,16 +14715,16 @@
         <v>272</v>
       </c>
       <c r="E143" s="10" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="F143" s="10"/>
       <c r="G143" s="28" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="50" customHeight="1">
-      <c r="A144" s="38"/>
-      <c r="B144" s="38"/>
+      <c r="A144" s="40"/>
+      <c r="B144" s="40"/>
       <c r="C144" s="8" t="s">
         <v>273</v>
       </c>
@@ -13457,12 +14734,12 @@
       <c r="E144" s="10"/>
       <c r="F144" s="10"/>
       <c r="G144" s="28" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="50" customHeight="1">
-      <c r="A145" s="38"/>
-      <c r="B145" s="38"/>
+      <c r="A145" s="40"/>
+      <c r="B145" s="40"/>
       <c r="C145" s="8" t="s">
         <v>275</v>
       </c>
@@ -13472,12 +14749,12 @@
       <c r="E145" s="10"/>
       <c r="F145" s="10"/>
       <c r="G145" s="28" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="50" customHeight="1">
-      <c r="A146" s="38"/>
-      <c r="B146" s="38"/>
+      <c r="A146" s="40"/>
+      <c r="B146" s="40"/>
       <c r="C146" s="8" t="s">
         <v>277</v>
       </c>
@@ -13487,12 +14764,12 @@
       <c r="E146" s="10"/>
       <c r="F146" s="10"/>
       <c r="G146" s="28" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="50" customHeight="1">
-      <c r="A147" s="38"/>
-      <c r="B147" s="38"/>
+      <c r="A147" s="40"/>
+      <c r="B147" s="40"/>
       <c r="C147" s="8" t="s">
         <v>279</v>
       </c>
@@ -13500,16 +14777,16 @@
         <v>280</v>
       </c>
       <c r="E147" s="10" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="F147" s="10"/>
       <c r="G147" s="28" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="50" customHeight="1">
-      <c r="A148" s="38"/>
-      <c r="B148" s="38"/>
+      <c r="A148" s="40"/>
+      <c r="B148" s="40"/>
       <c r="C148" s="8" t="s">
         <v>281</v>
       </c>
@@ -13517,16 +14794,16 @@
         <v>282</v>
       </c>
       <c r="E148" s="10" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="F148" s="10"/>
       <c r="G148" s="28" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="50" customHeight="1">
-      <c r="A149" s="39"/>
-      <c r="B149" s="39"/>
+      <c r="A149" s="41"/>
+      <c r="B149" s="41"/>
       <c r="C149" s="8" t="s">
         <v>283</v>
       </c>
@@ -13535,7 +14812,7 @@
       </c>
       <c r="E149" s="10"/>
       <c r="G149" s="28" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="50" customHeight="1">
@@ -13545,11 +14822,11 @@
       <c r="F150" s="10"/>
     </row>
     <row r="151" spans="1:7" ht="50" customHeight="1">
-      <c r="A151" s="37" t="s">
-        <v>906</v>
+      <c r="A151" s="39" t="s">
+        <v>905</v>
       </c>
       <c r="B151" s="16" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C151" s="8" t="s">
         <v>285</v>
@@ -13557,13 +14834,15 @@
       <c r="D151" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="E151" s="10"/>
+      <c r="E151" s="10" t="s">
+        <v>981</v>
+      </c>
       <c r="F151" s="10"/>
     </row>
     <row r="152" spans="1:7" ht="50" customHeight="1">
-      <c r="A152" s="38"/>
+      <c r="A152" s="40"/>
       <c r="B152" s="16" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C152" s="8" t="s">
         <v>287</v>
@@ -13572,17 +14851,17 @@
         <v>288</v>
       </c>
       <c r="E152" s="10" t="s">
-        <v>932</v>
+        <v>981</v>
       </c>
       <c r="F152" s="10"/>
       <c r="G152" s="34" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="153" spans="1:7" ht="50" customHeight="1">
-      <c r="A153" s="38"/>
+      <c r="A153" s="40"/>
       <c r="B153" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C153" s="8" t="s">
         <v>289</v>
@@ -13590,16 +14869,18 @@
       <c r="D153" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="E153" s="10"/>
+      <c r="E153" s="10" t="s">
+        <v>981</v>
+      </c>
       <c r="F153" s="10"/>
       <c r="G153" s="34" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="50" customHeight="1">
-      <c r="A154" s="38"/>
-      <c r="B154" s="40" t="s">
-        <v>924</v>
+      <c r="A154" s="40"/>
+      <c r="B154" s="42" t="s">
+        <v>923</v>
       </c>
       <c r="C154" s="8" t="s">
         <v>291</v>
@@ -13610,12 +14891,12 @@
       <c r="E154" s="10"/>
       <c r="F154" s="10"/>
       <c r="G154" s="34" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="50" customHeight="1">
-      <c r="A155" s="38"/>
-      <c r="B155" s="41"/>
+      <c r="A155" s="40"/>
+      <c r="B155" s="43"/>
       <c r="C155" s="8" t="s">
         <v>293</v>
       </c>
@@ -13623,16 +14904,16 @@
         <v>294</v>
       </c>
       <c r="E155" s="10" t="s">
-        <v>932</v>
+        <v>981</v>
       </c>
       <c r="F155" s="10"/>
       <c r="G155" s="34" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="50" customHeight="1">
-      <c r="A156" s="38"/>
-      <c r="B156" s="41"/>
+      <c r="A156" s="40"/>
+      <c r="B156" s="43"/>
       <c r="C156" s="8" t="s">
         <v>295</v>
       </c>
@@ -13642,12 +14923,12 @@
       <c r="E156" s="10"/>
       <c r="F156" s="10"/>
       <c r="G156" s="34" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="50" customHeight="1">
-      <c r="A157" s="38"/>
-      <c r="B157" s="41"/>
+      <c r="A157" s="40"/>
+      <c r="B157" s="43"/>
       <c r="C157" s="8" t="s">
         <v>297</v>
       </c>
@@ -13657,12 +14938,12 @@
       <c r="E157" s="10"/>
       <c r="F157" s="10"/>
       <c r="G157" s="34" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="50" customHeight="1">
-      <c r="A158" s="38"/>
-      <c r="B158" s="41"/>
+      <c r="A158" s="40"/>
+      <c r="B158" s="43"/>
       <c r="C158" s="8" t="s">
         <v>299</v>
       </c>
@@ -13672,12 +14953,12 @@
       <c r="E158" s="10"/>
       <c r="F158" s="10"/>
       <c r="G158" s="34" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="50" customHeight="1">
-      <c r="A159" s="38"/>
-      <c r="B159" s="41"/>
+      <c r="A159" s="40"/>
+      <c r="B159" s="43"/>
       <c r="C159" s="8" t="s">
         <v>301</v>
       </c>
@@ -13687,12 +14968,12 @@
       <c r="E159" s="10"/>
       <c r="F159" s="10"/>
       <c r="G159" s="34" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="160" spans="1:7" ht="50" customHeight="1">
-      <c r="A160" s="38"/>
-      <c r="B160" s="41"/>
+      <c r="A160" s="40"/>
+      <c r="B160" s="43"/>
       <c r="C160" s="8" t="s">
         <v>303</v>
       </c>
@@ -13702,28 +14983,30 @@
       <c r="E160" s="10"/>
       <c r="F160" s="10"/>
       <c r="G160" s="34" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="161" spans="1:7" ht="50" customHeight="1">
-      <c r="A161" s="38"/>
-      <c r="B161" s="42"/>
+      <c r="A161" s="40"/>
+      <c r="B161" s="44"/>
       <c r="C161" s="8" t="s">
         <v>305</v>
       </c>
       <c r="D161" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="E161" s="10"/>
+      <c r="E161" s="10" t="s">
+        <v>981</v>
+      </c>
       <c r="F161" s="10"/>
       <c r="G161" s="34" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="162" spans="1:7" ht="50" customHeight="1">
-      <c r="A162" s="38"/>
-      <c r="B162" s="37" t="s">
-        <v>925</v>
+      <c r="A162" s="40"/>
+      <c r="B162" s="39" t="s">
+        <v>924</v>
       </c>
       <c r="C162" s="8" t="s">
         <v>307</v>
@@ -13732,16 +15015,16 @@
         <v>308</v>
       </c>
       <c r="E162" s="10" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="F162" s="10"/>
       <c r="G162" s="35" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="50" customHeight="1">
-      <c r="A163" s="38"/>
-      <c r="B163" s="38"/>
+      <c r="A163" s="40"/>
+      <c r="B163" s="40"/>
       <c r="C163" s="8" t="s">
         <v>309</v>
       </c>
@@ -13753,12 +15036,12 @@
       </c>
       <c r="F163" s="10"/>
       <c r="G163" s="35" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="164" spans="1:7" ht="50" customHeight="1">
-      <c r="A164" s="38"/>
-      <c r="B164" s="39"/>
+      <c r="A164" s="40"/>
+      <c r="B164" s="41"/>
       <c r="C164" s="8" t="s">
         <v>311</v>
       </c>
@@ -13766,17 +15049,17 @@
         <v>312</v>
       </c>
       <c r="E164" s="10" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="F164" s="10"/>
       <c r="G164" s="35" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="165" spans="1:7" ht="50" customHeight="1">
-      <c r="A165" s="38"/>
-      <c r="B165" s="37" t="s">
-        <v>926</v>
+      <c r="A165" s="40"/>
+      <c r="B165" s="39" t="s">
+        <v>925</v>
       </c>
       <c r="C165" s="8" t="s">
         <v>313</v>
@@ -13787,12 +15070,12 @@
       <c r="E165" s="10"/>
       <c r="F165" s="10"/>
       <c r="G165" s="34" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="166" spans="1:7" ht="50" customHeight="1">
-      <c r="A166" s="38"/>
-      <c r="B166" s="38"/>
+      <c r="A166" s="40"/>
+      <c r="B166" s="40"/>
       <c r="C166" s="8" t="s">
         <v>315</v>
       </c>
@@ -13802,12 +15085,12 @@
       <c r="E166" s="10"/>
       <c r="F166" s="10"/>
       <c r="G166" s="34" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="167" spans="1:7" ht="50" customHeight="1">
-      <c r="A167" s="38"/>
-      <c r="B167" s="38"/>
+      <c r="A167" s="40"/>
+      <c r="B167" s="40"/>
       <c r="C167" s="8" t="s">
         <v>317</v>
       </c>
@@ -13817,12 +15100,12 @@
       <c r="E167" s="10"/>
       <c r="F167" s="10"/>
       <c r="G167" s="34" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="168" spans="1:7" ht="50" customHeight="1">
-      <c r="A168" s="38"/>
-      <c r="B168" s="38"/>
+      <c r="A168" s="40"/>
+      <c r="B168" s="40"/>
       <c r="C168" s="8" t="s">
         <v>319</v>
       </c>
@@ -13832,12 +15115,12 @@
       <c r="E168" s="10"/>
       <c r="F168" s="10"/>
       <c r="G168" s="34" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="50" customHeight="1">
-      <c r="A169" s="38"/>
-      <c r="B169" s="39"/>
+      <c r="A169" s="40"/>
+      <c r="B169" s="41"/>
       <c r="C169" s="15" t="s">
         <v>321</v>
       </c>
@@ -13845,13 +15128,13 @@
         <v>322</v>
       </c>
       <c r="G169" s="34" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="170" spans="1:7" ht="50" customHeight="1">
-      <c r="A170" s="38"/>
-      <c r="B170" s="37" t="s">
-        <v>927</v>
+      <c r="A170" s="40"/>
+      <c r="B170" s="39" t="s">
+        <v>926</v>
       </c>
       <c r="C170" s="8" t="s">
         <v>323</v>
@@ -13862,12 +15145,12 @@
       <c r="E170" s="10"/>
       <c r="F170" s="10"/>
       <c r="G170" s="34" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="171" spans="1:7" ht="50" customHeight="1">
-      <c r="A171" s="38"/>
-      <c r="B171" s="38"/>
+      <c r="A171" s="40"/>
+      <c r="B171" s="40"/>
       <c r="C171" s="8" t="s">
         <v>325</v>
       </c>
@@ -13877,12 +15160,12 @@
       <c r="E171" s="10"/>
       <c r="F171" s="10"/>
       <c r="G171" s="34" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="172" spans="1:7" ht="50" customHeight="1">
-      <c r="A172" s="38"/>
-      <c r="B172" s="38"/>
+      <c r="A172" s="40"/>
+      <c r="B172" s="40"/>
       <c r="C172" s="8" t="s">
         <v>327</v>
       </c>
@@ -13892,12 +15175,12 @@
       <c r="E172" s="10"/>
       <c r="F172" s="10"/>
       <c r="G172" s="34" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="173" spans="1:7" ht="50" customHeight="1">
-      <c r="A173" s="38"/>
-      <c r="B173" s="38"/>
+      <c r="A173" s="40"/>
+      <c r="B173" s="40"/>
       <c r="C173" s="8" t="s">
         <v>329</v>
       </c>
@@ -13907,12 +15190,12 @@
       <c r="E173" s="10"/>
       <c r="F173" s="10"/>
       <c r="G173" s="34" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="174" spans="1:7" ht="50" customHeight="1">
-      <c r="A174" s="38"/>
-      <c r="B174" s="38"/>
+      <c r="A174" s="40"/>
+      <c r="B174" s="40"/>
       <c r="C174" s="8" t="s">
         <v>331</v>
       </c>
@@ -13922,12 +15205,12 @@
       <c r="E174" s="10"/>
       <c r="F174" s="10"/>
       <c r="G174" s="34" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="175" spans="1:7" ht="50" customHeight="1">
-      <c r="A175" s="38"/>
-      <c r="B175" s="38"/>
+      <c r="A175" s="40"/>
+      <c r="B175" s="40"/>
       <c r="C175" s="8" t="s">
         <v>333</v>
       </c>
@@ -13937,12 +15220,12 @@
       <c r="E175" s="10"/>
       <c r="F175" s="10"/>
       <c r="G175" s="34" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="176" spans="1:7" ht="50" customHeight="1">
-      <c r="A176" s="38"/>
-      <c r="B176" s="38"/>
+      <c r="A176" s="40"/>
+      <c r="B176" s="40"/>
       <c r="C176" s="8" t="s">
         <v>335</v>
       </c>
@@ -13952,12 +15235,12 @@
       <c r="E176" s="10"/>
       <c r="F176" s="10"/>
       <c r="G176" s="34" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="177" spans="1:7" ht="50" customHeight="1">
-      <c r="A177" s="38"/>
-      <c r="B177" s="38"/>
+      <c r="A177" s="40"/>
+      <c r="B177" s="40"/>
       <c r="C177" s="8" t="s">
         <v>337</v>
       </c>
@@ -13967,12 +15250,12 @@
       <c r="E177" s="10"/>
       <c r="F177" s="10"/>
       <c r="G177" s="34" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="178" spans="1:7" ht="50" customHeight="1">
-      <c r="A178" s="38"/>
-      <c r="B178" s="38"/>
+      <c r="A178" s="40"/>
+      <c r="B178" s="40"/>
       <c r="C178" s="8" t="s">
         <v>339</v>
       </c>
@@ -13982,12 +15265,12 @@
       <c r="E178" s="10"/>
       <c r="F178" s="10"/>
       <c r="G178" s="34" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="179" spans="1:7" ht="50" customHeight="1">
-      <c r="A179" s="38"/>
-      <c r="B179" s="38"/>
+      <c r="A179" s="40"/>
+      <c r="B179" s="40"/>
       <c r="C179" s="8" t="s">
         <v>341</v>
       </c>
@@ -13997,12 +15280,12 @@
       <c r="E179" s="10"/>
       <c r="F179" s="10"/>
       <c r="G179" s="34" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="180" spans="1:7" ht="50" customHeight="1">
-      <c r="A180" s="38"/>
-      <c r="B180" s="39"/>
+      <c r="A180" s="40"/>
+      <c r="B180" s="41"/>
       <c r="C180" s="8" t="s">
         <v>343</v>
       </c>
@@ -14012,13 +15295,13 @@
       <c r="E180" s="10"/>
       <c r="F180" s="10"/>
       <c r="G180" s="34" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="181" spans="1:7" ht="50" customHeight="1">
-      <c r="A181" s="38"/>
-      <c r="B181" s="37" t="s">
-        <v>928</v>
+      <c r="A181" s="40"/>
+      <c r="B181" s="39" t="s">
+        <v>927</v>
       </c>
       <c r="C181" s="8" t="s">
         <v>345</v>
@@ -14027,16 +15310,16 @@
         <v>346</v>
       </c>
       <c r="E181" s="10" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="F181" s="10"/>
       <c r="G181" s="34" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="182" spans="1:7" ht="50" customHeight="1">
-      <c r="A182" s="38"/>
-      <c r="B182" s="39"/>
+      <c r="A182" s="40"/>
+      <c r="B182" s="41"/>
       <c r="C182" s="8" t="s">
         <v>347</v>
       </c>
@@ -14044,17 +15327,17 @@
         <v>348</v>
       </c>
       <c r="E182" s="10" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="F182" s="10"/>
       <c r="G182" s="34" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="183" spans="1:7" ht="50" customHeight="1">
-      <c r="A183" s="38"/>
-      <c r="B183" s="37" t="s">
-        <v>929</v>
+      <c r="A183" s="40"/>
+      <c r="B183" s="39" t="s">
+        <v>928</v>
       </c>
       <c r="C183" s="8" t="s">
         <v>349</v>
@@ -14065,12 +15348,12 @@
       <c r="E183" s="10"/>
       <c r="F183" s="10"/>
       <c r="G183" s="34" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="184" spans="1:7" ht="50" customHeight="1">
-      <c r="A184" s="38"/>
-      <c r="B184" s="38"/>
+      <c r="A184" s="40"/>
+      <c r="B184" s="40"/>
       <c r="C184" s="8" t="s">
         <v>351</v>
       </c>
@@ -14080,12 +15363,12 @@
       <c r="E184" s="10"/>
       <c r="F184" s="10"/>
       <c r="G184" s="34" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="185" spans="1:7" ht="50" customHeight="1">
-      <c r="A185" s="38"/>
-      <c r="B185" s="38"/>
+      <c r="A185" s="40"/>
+      <c r="B185" s="40"/>
       <c r="C185" s="8" t="s">
         <v>353</v>
       </c>
@@ -14095,12 +15378,12 @@
       <c r="E185" s="10"/>
       <c r="F185" s="10"/>
       <c r="G185" s="34" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="186" spans="1:7" ht="50" customHeight="1">
-      <c r="A186" s="38"/>
-      <c r="B186" s="38"/>
+      <c r="A186" s="40"/>
+      <c r="B186" s="40"/>
       <c r="C186" s="8" t="s">
         <v>355</v>
       </c>
@@ -14110,12 +15393,12 @@
       <c r="E186" s="10"/>
       <c r="F186" s="10"/>
       <c r="G186" s="34" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="187" spans="1:7" ht="50" customHeight="1">
-      <c r="A187" s="38"/>
-      <c r="B187" s="38"/>
+      <c r="A187" s="40"/>
+      <c r="B187" s="40"/>
       <c r="C187" s="8" t="s">
         <v>357</v>
       </c>
@@ -14125,12 +15408,12 @@
       <c r="E187" s="10"/>
       <c r="F187" s="10"/>
       <c r="G187" s="34" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="188" spans="1:7" ht="50" customHeight="1">
-      <c r="A188" s="38"/>
-      <c r="B188" s="39"/>
+      <c r="A188" s="40"/>
+      <c r="B188" s="41"/>
       <c r="C188" s="8" t="s">
         <v>359</v>
       </c>
@@ -14140,13 +15423,13 @@
       <c r="E188" s="10"/>
       <c r="F188" s="10"/>
       <c r="G188" s="34" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="189" spans="1:7" ht="50" customHeight="1">
-      <c r="A189" s="38"/>
-      <c r="B189" s="37" t="s">
-        <v>930</v>
+      <c r="A189" s="40"/>
+      <c r="B189" s="39" t="s">
+        <v>929</v>
       </c>
       <c r="C189" s="8" t="s">
         <v>361</v>
@@ -14154,15 +15437,17 @@
       <c r="D189" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="E189" s="10"/>
-      <c r="F189" s="10"/>
+      <c r="E189" s="37" t="s">
+        <v>981</v>
+      </c>
+      <c r="F189" s="38"/>
       <c r="G189" s="34" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="190" spans="1:7" ht="50" customHeight="1">
-      <c r="A190" s="38"/>
-      <c r="B190" s="38"/>
+      <c r="A190" s="40"/>
+      <c r="B190" s="40"/>
       <c r="C190" s="8" t="s">
         <v>363</v>
       </c>
@@ -14172,42 +15457,46 @@
       <c r="E190" s="10"/>
       <c r="F190" s="10"/>
       <c r="G190" s="34" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="191" spans="1:7" ht="50" customHeight="1">
-      <c r="A191" s="38"/>
-      <c r="B191" s="38"/>
+      <c r="A191" s="40"/>
+      <c r="B191" s="40"/>
       <c r="C191" s="8" t="s">
         <v>365</v>
       </c>
       <c r="D191" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="E191" s="10"/>
-      <c r="F191" s="10"/>
+      <c r="E191" s="37" t="s">
+        <v>981</v>
+      </c>
+      <c r="F191" s="38"/>
       <c r="G191" s="34" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="192" spans="1:7" ht="50" customHeight="1">
-      <c r="A192" s="38"/>
-      <c r="B192" s="38"/>
+      <c r="A192" s="40"/>
+      <c r="B192" s="40"/>
       <c r="C192" s="8" t="s">
         <v>367</v>
       </c>
       <c r="D192" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="E192" s="10"/>
-      <c r="F192" s="10"/>
+      <c r="E192" s="37" t="s">
+        <v>981</v>
+      </c>
+      <c r="F192" s="38"/>
       <c r="G192" s="34" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="193" spans="1:7" ht="50" customHeight="1">
-      <c r="A193" s="38"/>
-      <c r="B193" s="38"/>
+      <c r="A193" s="40"/>
+      <c r="B193" s="40"/>
       <c r="C193" s="8" t="s">
         <v>369</v>
       </c>
@@ -14217,57 +15506,63 @@
       <c r="E193" s="10"/>
       <c r="F193" s="10"/>
       <c r="G193" s="34" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="194" spans="1:7" ht="50" customHeight="1">
-      <c r="A194" s="38"/>
-      <c r="B194" s="38"/>
+      <c r="A194" s="40"/>
+      <c r="B194" s="40"/>
       <c r="C194" s="8" t="s">
         <v>371</v>
       </c>
       <c r="D194" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="E194" s="10"/>
-      <c r="F194" s="10"/>
+      <c r="E194" s="37" t="s">
+        <v>981</v>
+      </c>
+      <c r="F194" s="38"/>
       <c r="G194" s="34" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="195" spans="1:7" ht="50" customHeight="1">
-      <c r="A195" s="38"/>
-      <c r="B195" s="38"/>
+      <c r="A195" s="40"/>
+      <c r="B195" s="40"/>
       <c r="C195" s="8" t="s">
         <v>373</v>
       </c>
       <c r="D195" s="9" t="s">
         <v>374</v>
       </c>
-      <c r="E195" s="10"/>
-      <c r="F195" s="10"/>
+      <c r="E195" s="37" t="s">
+        <v>981</v>
+      </c>
+      <c r="F195" s="38"/>
       <c r="G195" s="34" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="196" spans="1:7" ht="50" customHeight="1">
-      <c r="A196" s="38"/>
-      <c r="B196" s="38"/>
+      <c r="A196" s="40"/>
+      <c r="B196" s="40"/>
       <c r="C196" s="8" t="s">
         <v>375</v>
       </c>
       <c r="D196" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="E196" s="10"/>
-      <c r="F196" s="10"/>
+      <c r="E196" s="37" t="s">
+        <v>981</v>
+      </c>
+      <c r="F196" s="38"/>
       <c r="G196" s="34" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="197" spans="1:7" ht="50" customHeight="1">
-      <c r="A197" s="38"/>
-      <c r="B197" s="38"/>
+      <c r="A197" s="40"/>
+      <c r="B197" s="40"/>
       <c r="C197" s="8" t="s">
         <v>377</v>
       </c>
@@ -14277,27 +15572,29 @@
       <c r="E197" s="10"/>
       <c r="F197" s="10"/>
       <c r="G197" s="34" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="198" spans="1:7" ht="50" customHeight="1">
-      <c r="A198" s="38"/>
-      <c r="B198" s="38"/>
+      <c r="A198" s="40"/>
+      <c r="B198" s="40"/>
       <c r="C198" s="8" t="s">
         <v>379</v>
       </c>
       <c r="D198" s="9" t="s">
         <v>380</v>
       </c>
-      <c r="E198" s="10"/>
-      <c r="F198" s="10"/>
+      <c r="E198" s="37" t="s">
+        <v>981</v>
+      </c>
+      <c r="F198" s="38"/>
       <c r="G198" s="34" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="199" spans="1:7" ht="50" customHeight="1">
-      <c r="A199" s="38"/>
-      <c r="B199" s="38"/>
+      <c r="A199" s="40"/>
+      <c r="B199" s="40"/>
       <c r="C199" s="8" t="s">
         <v>381</v>
       </c>
@@ -14307,12 +15604,12 @@
       <c r="E199" s="10"/>
       <c r="F199" s="10"/>
       <c r="G199" s="34" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="200" spans="1:7" ht="50" customHeight="1">
-      <c r="A200" s="38"/>
-      <c r="B200" s="38"/>
+      <c r="A200" s="40"/>
+      <c r="B200" s="40"/>
       <c r="C200" s="8" t="s">
         <v>383</v>
       </c>
@@ -14322,12 +15619,12 @@
       <c r="E200" s="10"/>
       <c r="F200" s="10"/>
       <c r="G200" s="34" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="201" spans="1:7" ht="50" customHeight="1">
-      <c r="A201" s="38"/>
-      <c r="B201" s="38"/>
+      <c r="A201" s="40"/>
+      <c r="B201" s="40"/>
       <c r="C201" s="8" t="s">
         <v>385</v>
       </c>
@@ -14337,12 +15634,12 @@
       <c r="E201" s="10"/>
       <c r="F201" s="10"/>
       <c r="G201" s="34" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="202" spans="1:7" ht="50" customHeight="1">
-      <c r="A202" s="38"/>
-      <c r="B202" s="38"/>
+      <c r="A202" s="40"/>
+      <c r="B202" s="40"/>
       <c r="C202" s="8" t="s">
         <v>387</v>
       </c>
@@ -14352,27 +15649,29 @@
       <c r="E202" s="10"/>
       <c r="F202" s="10"/>
       <c r="G202" s="34" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="203" spans="1:7" ht="50" customHeight="1">
-      <c r="A203" s="38"/>
-      <c r="B203" s="38"/>
+      <c r="A203" s="40"/>
+      <c r="B203" s="40"/>
       <c r="C203" s="8" t="s">
         <v>389</v>
       </c>
       <c r="D203" s="9" t="s">
         <v>390</v>
       </c>
-      <c r="E203" s="10"/>
-      <c r="F203" s="10"/>
+      <c r="E203" s="37" t="s">
+        <v>981</v>
+      </c>
+      <c r="F203" s="38"/>
       <c r="G203" s="34" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="204" spans="1:7" ht="50" customHeight="1">
-      <c r="A204" s="38"/>
-      <c r="B204" s="38"/>
+      <c r="A204" s="40"/>
+      <c r="B204" s="40"/>
       <c r="C204" s="8" t="s">
         <v>391</v>
       </c>
@@ -14382,27 +15681,29 @@
       <c r="E204" s="10"/>
       <c r="F204" s="10"/>
       <c r="G204" s="34" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="205" spans="1:7" ht="50" customHeight="1">
-      <c r="A205" s="38"/>
-      <c r="B205" s="38"/>
+      <c r="A205" s="40"/>
+      <c r="B205" s="40"/>
       <c r="C205" s="8" t="s">
         <v>393</v>
       </c>
       <c r="D205" s="9" t="s">
         <v>394</v>
       </c>
-      <c r="E205" s="10"/>
-      <c r="F205" s="10"/>
+      <c r="E205" s="37" t="s">
+        <v>981</v>
+      </c>
+      <c r="F205" s="38"/>
       <c r="G205" s="34" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="206" spans="1:7" ht="50" customHeight="1">
-      <c r="A206" s="38"/>
-      <c r="B206" s="38"/>
+      <c r="A206" s="40"/>
+      <c r="B206" s="40"/>
       <c r="C206" s="8" t="s">
         <v>395</v>
       </c>
@@ -14412,12 +15713,12 @@
       <c r="E206" s="10"/>
       <c r="F206" s="10"/>
       <c r="G206" s="34" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="207" spans="1:7" ht="50" customHeight="1">
-      <c r="A207" s="38"/>
-      <c r="B207" s="38"/>
+      <c r="A207" s="40"/>
+      <c r="B207" s="40"/>
       <c r="C207" s="8" t="s">
         <v>397</v>
       </c>
@@ -14427,12 +15728,12 @@
       <c r="E207" s="10"/>
       <c r="F207" s="10"/>
       <c r="G207" s="34" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="208" spans="1:7" ht="50" customHeight="1">
-      <c r="A208" s="38"/>
-      <c r="B208" s="38"/>
+      <c r="A208" s="40"/>
+      <c r="B208" s="40"/>
       <c r="C208" s="8" t="s">
         <v>399</v>
       </c>
@@ -14442,12 +15743,12 @@
       <c r="E208" s="10"/>
       <c r="F208" s="10"/>
       <c r="G208" s="34" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="209" spans="1:7" ht="50" customHeight="1">
-      <c r="A209" s="38"/>
-      <c r="B209" s="38"/>
+      <c r="A209" s="40"/>
+      <c r="B209" s="40"/>
       <c r="C209" s="8" t="s">
         <v>401</v>
       </c>
@@ -14457,12 +15758,12 @@
       <c r="E209" s="10"/>
       <c r="F209" s="10"/>
       <c r="G209" s="34" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="210" spans="1:7" ht="50" customHeight="1">
-      <c r="A210" s="38"/>
-      <c r="B210" s="38"/>
+      <c r="A210" s="40"/>
+      <c r="B210" s="40"/>
       <c r="C210" s="8" t="s">
         <v>403</v>
       </c>
@@ -14472,12 +15773,12 @@
       <c r="E210" s="10"/>
       <c r="F210" s="10"/>
       <c r="G210" s="34" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="211" spans="1:7" ht="50" customHeight="1">
-      <c r="A211" s="38"/>
-      <c r="B211" s="38"/>
+      <c r="A211" s="40"/>
+      <c r="B211" s="40"/>
       <c r="C211" s="8" t="s">
         <v>405</v>
       </c>
@@ -14487,12 +15788,12 @@
       <c r="E211" s="10"/>
       <c r="F211" s="10"/>
       <c r="G211" s="34" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="212" spans="1:7" ht="50" customHeight="1">
-      <c r="A212" s="38"/>
-      <c r="B212" s="38"/>
+      <c r="A212" s="40"/>
+      <c r="B212" s="40"/>
       <c r="C212" s="8" t="s">
         <v>407</v>
       </c>
@@ -14502,12 +15803,12 @@
       <c r="E212" s="10"/>
       <c r="F212" s="10"/>
       <c r="G212" s="34" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="213" spans="1:7" ht="50" customHeight="1">
-      <c r="A213" s="38"/>
-      <c r="B213" s="38"/>
+      <c r="A213" s="40"/>
+      <c r="B213" s="40"/>
       <c r="C213" s="8" t="s">
         <v>409</v>
       </c>
@@ -14517,12 +15818,12 @@
       <c r="E213" s="10"/>
       <c r="F213" s="10"/>
       <c r="G213" s="34" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="214" spans="1:7" ht="50" customHeight="1">
-      <c r="A214" s="38"/>
-      <c r="B214" s="38"/>
+      <c r="A214" s="40"/>
+      <c r="B214" s="40"/>
       <c r="C214" s="8" t="s">
         <v>411</v>
       </c>
@@ -14532,12 +15833,12 @@
       <c r="E214" s="10"/>
       <c r="F214" s="10"/>
       <c r="G214" s="34" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="215" spans="1:7" ht="50" customHeight="1">
-      <c r="A215" s="38"/>
-      <c r="B215" s="38"/>
+      <c r="A215" s="40"/>
+      <c r="B215" s="40"/>
       <c r="C215" s="8" t="s">
         <v>413</v>
       </c>
@@ -14547,12 +15848,12 @@
       <c r="E215" s="10"/>
       <c r="F215" s="10"/>
       <c r="G215" s="34" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="216" spans="1:7" ht="50" customHeight="1">
-      <c r="A216" s="38"/>
-      <c r="B216" s="38"/>
+      <c r="A216" s="40"/>
+      <c r="B216" s="40"/>
       <c r="C216" s="8" t="s">
         <v>415</v>
       </c>
@@ -14562,12 +15863,12 @@
       <c r="E216" s="10"/>
       <c r="F216" s="10"/>
       <c r="G216" s="34" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="217" spans="1:7" ht="50" customHeight="1">
-      <c r="A217" s="38"/>
-      <c r="B217" s="38"/>
+      <c r="A217" s="40"/>
+      <c r="B217" s="40"/>
       <c r="C217" s="8" t="s">
         <v>417</v>
       </c>
@@ -14577,12 +15878,12 @@
       <c r="E217" s="10"/>
       <c r="F217" s="10"/>
       <c r="G217" s="34" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="218" spans="1:7" ht="50" customHeight="1">
-      <c r="A218" s="38"/>
-      <c r="B218" s="38"/>
+      <c r="A218" s="40"/>
+      <c r="B218" s="40"/>
       <c r="C218" s="8" t="s">
         <v>419</v>
       </c>
@@ -14592,12 +15893,12 @@
       <c r="E218" s="10"/>
       <c r="F218" s="10"/>
       <c r="G218" s="34" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="219" spans="1:7" ht="50" customHeight="1">
-      <c r="A219" s="38"/>
-      <c r="B219" s="38"/>
+      <c r="A219" s="40"/>
+      <c r="B219" s="40"/>
       <c r="C219" s="8" t="s">
         <v>421</v>
       </c>
@@ -14607,12 +15908,12 @@
       <c r="E219" s="10"/>
       <c r="F219" s="10"/>
       <c r="G219" s="34" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="220" spans="1:7" ht="50" customHeight="1">
-      <c r="A220" s="38"/>
-      <c r="B220" s="38"/>
+      <c r="A220" s="40"/>
+      <c r="B220" s="40"/>
       <c r="C220" s="8" t="s">
         <v>423</v>
       </c>
@@ -14622,12 +15923,12 @@
       <c r="E220" s="10"/>
       <c r="F220" s="10"/>
       <c r="G220" s="34" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="221" spans="1:7" ht="50" customHeight="1">
-      <c r="A221" s="38"/>
-      <c r="B221" s="38"/>
+      <c r="A221" s="40"/>
+      <c r="B221" s="40"/>
       <c r="C221" s="8" t="s">
         <v>425</v>
       </c>
@@ -14637,12 +15938,12 @@
       <c r="E221" s="10"/>
       <c r="F221" s="10"/>
       <c r="G221" s="34" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="222" spans="1:7" ht="50" customHeight="1">
-      <c r="A222" s="38"/>
-      <c r="B222" s="38"/>
+      <c r="A222" s="40"/>
+      <c r="B222" s="40"/>
       <c r="C222" s="8" t="s">
         <v>427</v>
       </c>
@@ -14652,12 +15953,12 @@
       <c r="E222" s="10"/>
       <c r="F222" s="10"/>
       <c r="G222" s="34" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="223" spans="1:7" ht="50" customHeight="1">
-      <c r="A223" s="38"/>
-      <c r="B223" s="39"/>
+      <c r="A223" s="40"/>
+      <c r="B223" s="41"/>
       <c r="C223" s="8" t="s">
         <v>429</v>
       </c>
@@ -14667,13 +15968,13 @@
       <c r="E223" s="10"/>
       <c r="F223" s="10"/>
       <c r="G223" s="34" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="224" spans="1:7" ht="50" customHeight="1">
-      <c r="A224" s="38"/>
-      <c r="B224" s="37" t="s">
-        <v>931</v>
+      <c r="A224" s="40"/>
+      <c r="B224" s="39" t="s">
+        <v>930</v>
       </c>
       <c r="C224" s="15" t="s">
         <v>431</v>
@@ -14682,12 +15983,12 @@
         <v>432</v>
       </c>
       <c r="G224" s="34" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="225" spans="1:7" ht="50" customHeight="1">
-      <c r="A225" s="38"/>
-      <c r="B225" s="38"/>
+      <c r="A225" s="40"/>
+      <c r="B225" s="40"/>
       <c r="C225" s="15" t="s">
         <v>433</v>
       </c>
@@ -14698,12 +15999,12 @@
         <v>825</v>
       </c>
       <c r="G225" s="34" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="226" spans="1:7" ht="50" customHeight="1">
-      <c r="A226" s="38"/>
-      <c r="B226" s="38"/>
+      <c r="A226" s="40"/>
+      <c r="B226" s="40"/>
       <c r="C226" s="15" t="s">
         <v>435</v>
       </c>
@@ -14711,12 +16012,12 @@
         <v>436</v>
       </c>
       <c r="G226" s="34" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="227" spans="1:7" ht="50" customHeight="1">
-      <c r="A227" s="39"/>
-      <c r="B227" s="39"/>
+      <c r="A227" s="41"/>
+      <c r="B227" s="41"/>
       <c r="C227" s="15" t="s">
         <v>437</v>
       </c>
@@ -14724,15 +16025,15 @@
         <v>438</v>
       </c>
       <c r="G227" s="34" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="229" spans="1:7" ht="50" customHeight="1">
-      <c r="A229" s="37" t="s">
-        <v>912</v>
+      <c r="A229" s="39" t="s">
+        <v>911</v>
       </c>
       <c r="B229" s="16" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="C229" s="8" t="s">
         <v>439</v>
@@ -14741,17 +16042,17 @@
         <v>440</v>
       </c>
       <c r="E229" s="10" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="F229" s="10"/>
       <c r="G229" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="230" spans="1:7" ht="50" customHeight="1">
-      <c r="A230" s="38"/>
+      <c r="A230" s="40"/>
       <c r="B230" s="16" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="C230" s="8" t="s">
         <v>441</v>
@@ -14760,17 +16061,17 @@
         <v>442</v>
       </c>
       <c r="E230" s="10" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="F230" s="10"/>
       <c r="G230" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="231" spans="1:7" ht="50" customHeight="1">
-      <c r="A231" s="38"/>
-      <c r="B231" s="37" t="s">
-        <v>950</v>
+      <c r="A231" s="40"/>
+      <c r="B231" s="39" t="s">
+        <v>948</v>
       </c>
       <c r="C231" s="8" t="s">
         <v>443</v>
@@ -14778,31 +16079,35 @@
       <c r="D231" s="9" t="s">
         <v>444</v>
       </c>
-      <c r="E231" s="10"/>
+      <c r="E231" s="10" t="s">
+        <v>935</v>
+      </c>
       <c r="F231" s="10"/>
       <c r="G231" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="232" spans="1:7" ht="50" customHeight="1">
-      <c r="A232" s="38"/>
-      <c r="B232" s="39"/>
+      <c r="A232" s="40"/>
+      <c r="B232" s="41"/>
       <c r="C232" s="8" t="s">
         <v>445</v>
       </c>
       <c r="D232" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="E232" s="10"/>
+      <c r="E232" s="10" t="s">
+        <v>934</v>
+      </c>
       <c r="F232" s="10"/>
       <c r="G232" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="233" spans="1:7" ht="50" customHeight="1">
-      <c r="A233" s="38"/>
-      <c r="B233" s="37" t="s">
-        <v>951</v>
+      <c r="A233" s="40"/>
+      <c r="B233" s="39" t="s">
+        <v>949</v>
       </c>
       <c r="C233" s="8" t="s">
         <v>447</v>
@@ -14813,12 +16118,12 @@
       <c r="E233" s="10"/>
       <c r="F233" s="10"/>
       <c r="G233" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="234" spans="1:7" ht="50" customHeight="1">
-      <c r="A234" s="38"/>
-      <c r="B234" s="39"/>
+      <c r="A234" s="40"/>
+      <c r="B234" s="41"/>
       <c r="C234" s="8" t="s">
         <v>449</v>
       </c>
@@ -14828,13 +16133,13 @@
       <c r="E234" s="10"/>
       <c r="F234" s="10"/>
       <c r="G234" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="235" spans="1:7" ht="50" customHeight="1">
-      <c r="A235" s="38"/>
-      <c r="B235" s="37" t="s">
-        <v>952</v>
+      <c r="A235" s="40"/>
+      <c r="B235" s="39" t="s">
+        <v>950</v>
       </c>
       <c r="C235" s="8" t="s">
         <v>451</v>
@@ -14845,12 +16150,12 @@
       <c r="E235" s="10"/>
       <c r="F235" s="10"/>
       <c r="G235" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="236" spans="1:7" ht="50" customHeight="1">
-      <c r="A236" s="38"/>
-      <c r="B236" s="38"/>
+      <c r="A236" s="40"/>
+      <c r="B236" s="40"/>
       <c r="C236" s="8" t="s">
         <v>453</v>
       </c>
@@ -14860,12 +16165,12 @@
       <c r="E236" s="10"/>
       <c r="F236" s="10"/>
       <c r="G236" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="237" spans="1:7" ht="50" customHeight="1">
-      <c r="A237" s="38"/>
-      <c r="B237" s="38"/>
+      <c r="A237" s="40"/>
+      <c r="B237" s="40"/>
       <c r="C237" s="8" t="s">
         <v>455</v>
       </c>
@@ -14875,12 +16180,12 @@
       <c r="E237" s="10"/>
       <c r="F237" s="10"/>
       <c r="G237" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="238" spans="1:7" ht="50" customHeight="1">
-      <c r="A238" s="38"/>
-      <c r="B238" s="38"/>
+      <c r="A238" s="40"/>
+      <c r="B238" s="40"/>
       <c r="C238" s="8" t="s">
         <v>457</v>
       </c>
@@ -14890,12 +16195,12 @@
       <c r="E238" s="10"/>
       <c r="F238" s="10"/>
       <c r="G238" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="239" spans="1:7" ht="50" customHeight="1">
-      <c r="A239" s="38"/>
-      <c r="B239" s="38"/>
+      <c r="A239" s="40"/>
+      <c r="B239" s="40"/>
       <c r="C239" s="8" t="s">
         <v>459</v>
       </c>
@@ -14905,12 +16210,12 @@
       <c r="E239" s="10"/>
       <c r="F239" s="10"/>
       <c r="G239" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="240" spans="1:7" ht="50" customHeight="1">
-      <c r="A240" s="38"/>
-      <c r="B240" s="38"/>
+      <c r="A240" s="40"/>
+      <c r="B240" s="40"/>
       <c r="C240" s="8" t="s">
         <v>461</v>
       </c>
@@ -14920,12 +16225,12 @@
       <c r="E240" s="10"/>
       <c r="F240" s="10"/>
       <c r="G240" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="241" spans="1:7" ht="50" customHeight="1">
-      <c r="A241" s="38"/>
-      <c r="B241" s="38"/>
+      <c r="A241" s="40"/>
+      <c r="B241" s="40"/>
       <c r="C241" s="8" t="s">
         <v>463</v>
       </c>
@@ -14935,12 +16240,12 @@
       <c r="E241" s="10"/>
       <c r="F241" s="10"/>
       <c r="G241" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="242" spans="1:7" ht="50" customHeight="1">
-      <c r="A242" s="38"/>
-      <c r="B242" s="38"/>
+      <c r="A242" s="40"/>
+      <c r="B242" s="40"/>
       <c r="C242" s="8" t="s">
         <v>465</v>
       </c>
@@ -14950,12 +16255,12 @@
       <c r="E242" s="10"/>
       <c r="F242" s="10"/>
       <c r="G242" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="243" spans="1:7" ht="50" customHeight="1">
-      <c r="A243" s="38"/>
-      <c r="B243" s="38"/>
+      <c r="A243" s="40"/>
+      <c r="B243" s="40"/>
       <c r="C243" s="8" t="s">
         <v>467</v>
       </c>
@@ -14965,12 +16270,12 @@
       <c r="E243" s="10"/>
       <c r="F243" s="10"/>
       <c r="G243" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="244" spans="1:7" ht="50" customHeight="1">
-      <c r="A244" s="38"/>
-      <c r="B244" s="38"/>
+      <c r="A244" s="40"/>
+      <c r="B244" s="40"/>
       <c r="C244" s="8" t="s">
         <v>469</v>
       </c>
@@ -14980,12 +16285,12 @@
       <c r="E244" s="10"/>
       <c r="F244" s="10"/>
       <c r="G244" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="245" spans="1:7" ht="50" customHeight="1">
-      <c r="A245" s="38"/>
-      <c r="B245" s="38"/>
+      <c r="A245" s="40"/>
+      <c r="B245" s="40"/>
       <c r="C245" s="8" t="s">
         <v>471</v>
       </c>
@@ -14995,12 +16300,12 @@
       <c r="E245" s="10"/>
       <c r="F245" s="10"/>
       <c r="G245" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="246" spans="1:7" ht="50" customHeight="1">
-      <c r="A246" s="38"/>
-      <c r="B246" s="38"/>
+      <c r="A246" s="40"/>
+      <c r="B246" s="40"/>
       <c r="C246" s="8" t="s">
         <v>473</v>
       </c>
@@ -15010,12 +16315,12 @@
       <c r="E246" s="10"/>
       <c r="F246" s="10"/>
       <c r="G246" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="247" spans="1:7" ht="50" customHeight="1">
-      <c r="A247" s="38"/>
-      <c r="B247" s="38"/>
+      <c r="A247" s="40"/>
+      <c r="B247" s="40"/>
       <c r="C247" s="8" t="s">
         <v>475</v>
       </c>
@@ -15025,12 +16330,12 @@
       <c r="E247" s="10"/>
       <c r="F247" s="10"/>
       <c r="G247" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="248" spans="1:7" ht="50" customHeight="1">
-      <c r="A248" s="38"/>
-      <c r="B248" s="38"/>
+      <c r="A248" s="40"/>
+      <c r="B248" s="40"/>
       <c r="C248" s="8" t="s">
         <v>477</v>
       </c>
@@ -15040,12 +16345,12 @@
       <c r="E248" s="10"/>
       <c r="F248" s="10"/>
       <c r="G248" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="249" spans="1:7" ht="50" customHeight="1">
-      <c r="A249" s="38"/>
-      <c r="B249" s="38"/>
+      <c r="A249" s="40"/>
+      <c r="B249" s="40"/>
       <c r="C249" s="8" t="s">
         <v>479</v>
       </c>
@@ -15055,12 +16360,12 @@
       <c r="E249" s="10"/>
       <c r="F249" s="10"/>
       <c r="G249" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="250" spans="1:7" ht="50" customHeight="1">
-      <c r="A250" s="38"/>
-      <c r="B250" s="38"/>
+      <c r="A250" s="40"/>
+      <c r="B250" s="40"/>
       <c r="C250" s="8" t="s">
         <v>481</v>
       </c>
@@ -15070,12 +16375,12 @@
       <c r="E250" s="10"/>
       <c r="F250" s="10"/>
       <c r="G250" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="251" spans="1:7" ht="50" customHeight="1">
-      <c r="A251" s="38"/>
-      <c r="B251" s="38"/>
+      <c r="A251" s="40"/>
+      <c r="B251" s="40"/>
       <c r="C251" s="8" t="s">
         <v>483</v>
       </c>
@@ -15085,12 +16390,12 @@
       <c r="E251" s="10"/>
       <c r="F251" s="10"/>
       <c r="G251" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="252" spans="1:7" ht="50" customHeight="1">
-      <c r="A252" s="38"/>
-      <c r="B252" s="38"/>
+      <c r="A252" s="40"/>
+      <c r="B252" s="40"/>
       <c r="C252" s="8" t="s">
         <v>485</v>
       </c>
@@ -15100,12 +16405,12 @@
       <c r="E252" s="10"/>
       <c r="F252" s="10"/>
       <c r="G252" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="253" spans="1:7" ht="50" customHeight="1">
-      <c r="A253" s="38"/>
-      <c r="B253" s="38"/>
+      <c r="A253" s="40"/>
+      <c r="B253" s="40"/>
       <c r="C253" s="8" t="s">
         <v>487</v>
       </c>
@@ -15115,12 +16420,12 @@
       <c r="E253" s="10"/>
       <c r="F253" s="10"/>
       <c r="G253" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="254" spans="1:7" ht="50" customHeight="1">
-      <c r="A254" s="38"/>
-      <c r="B254" s="38"/>
+      <c r="A254" s="40"/>
+      <c r="B254" s="40"/>
       <c r="C254" s="8" t="s">
         <v>489</v>
       </c>
@@ -15130,12 +16435,12 @@
       <c r="E254" s="10"/>
       <c r="F254" s="10"/>
       <c r="G254" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="255" spans="1:7" ht="50" customHeight="1">
-      <c r="A255" s="38"/>
-      <c r="B255" s="38"/>
+      <c r="A255" s="40"/>
+      <c r="B255" s="40"/>
       <c r="C255" s="8" t="s">
         <v>491</v>
       </c>
@@ -15145,12 +16450,12 @@
       <c r="E255" s="10"/>
       <c r="F255" s="10"/>
       <c r="G255" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="256" spans="1:7" ht="50" customHeight="1">
-      <c r="A256" s="38"/>
-      <c r="B256" s="38"/>
+      <c r="A256" s="40"/>
+      <c r="B256" s="40"/>
       <c r="C256" s="8" t="s">
         <v>493</v>
       </c>
@@ -15160,12 +16465,12 @@
       <c r="E256" s="10"/>
       <c r="F256" s="10"/>
       <c r="G256" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="257" spans="1:7" ht="50" customHeight="1">
-      <c r="A257" s="38"/>
-      <c r="B257" s="38"/>
+      <c r="A257" s="40"/>
+      <c r="B257" s="40"/>
       <c r="C257" s="8" t="s">
         <v>495</v>
       </c>
@@ -15175,12 +16480,12 @@
       <c r="E257" s="10"/>
       <c r="F257" s="10"/>
       <c r="G257" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="258" spans="1:7" ht="50" customHeight="1">
-      <c r="A258" s="38"/>
-      <c r="B258" s="38"/>
+      <c r="A258" s="40"/>
+      <c r="B258" s="40"/>
       <c r="C258" s="8" t="s">
         <v>497</v>
       </c>
@@ -15190,12 +16495,12 @@
       <c r="E258" s="10"/>
       <c r="F258" s="10"/>
       <c r="G258" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="259" spans="1:7" ht="50" customHeight="1">
-      <c r="A259" s="38"/>
-      <c r="B259" s="38"/>
+      <c r="A259" s="40"/>
+      <c r="B259" s="40"/>
       <c r="C259" s="8" t="s">
         <v>499</v>
       </c>
@@ -15205,12 +16510,12 @@
       <c r="E259" s="10"/>
       <c r="F259" s="10"/>
       <c r="G259" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="260" spans="1:7" ht="50" customHeight="1">
-      <c r="A260" s="38"/>
-      <c r="B260" s="38"/>
+      <c r="A260" s="40"/>
+      <c r="B260" s="40"/>
       <c r="C260" s="8" t="s">
         <v>501</v>
       </c>
@@ -15220,12 +16525,12 @@
       <c r="E260" s="10"/>
       <c r="F260" s="10"/>
       <c r="G260" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="261" spans="1:7" ht="50" customHeight="1">
-      <c r="A261" s="38"/>
-      <c r="B261" s="38"/>
+      <c r="A261" s="40"/>
+      <c r="B261" s="40"/>
       <c r="C261" s="8" t="s">
         <v>503</v>
       </c>
@@ -15235,12 +16540,12 @@
       <c r="E261" s="10"/>
       <c r="F261" s="10"/>
       <c r="G261" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="262" spans="1:7" ht="50" customHeight="1">
-      <c r="A262" s="38"/>
-      <c r="B262" s="38"/>
+      <c r="A262" s="40"/>
+      <c r="B262" s="40"/>
       <c r="C262" s="8" t="s">
         <v>505</v>
       </c>
@@ -15250,12 +16555,12 @@
       <c r="E262" s="10"/>
       <c r="F262" s="10"/>
       <c r="G262" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="263" spans="1:7" ht="50" customHeight="1">
-      <c r="A263" s="38"/>
-      <c r="B263" s="38"/>
+      <c r="A263" s="40"/>
+      <c r="B263" s="40"/>
       <c r="C263" s="8" t="s">
         <v>507</v>
       </c>
@@ -15265,12 +16570,12 @@
       <c r="E263" s="10"/>
       <c r="F263" s="10"/>
       <c r="G263" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="264" spans="1:7" ht="50" customHeight="1">
-      <c r="A264" s="38"/>
-      <c r="B264" s="38"/>
+      <c r="A264" s="40"/>
+      <c r="B264" s="40"/>
       <c r="C264" s="8" t="s">
         <v>509</v>
       </c>
@@ -15280,12 +16585,12 @@
       <c r="E264" s="10"/>
       <c r="F264" s="10"/>
       <c r="G264" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="265" spans="1:7" ht="50" customHeight="1">
-      <c r="A265" s="38"/>
-      <c r="B265" s="38"/>
+      <c r="A265" s="40"/>
+      <c r="B265" s="40"/>
       <c r="C265" s="8" t="s">
         <v>511</v>
       </c>
@@ -15295,12 +16600,12 @@
       <c r="E265" s="10"/>
       <c r="F265" s="10"/>
       <c r="G265" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="266" spans="1:7" ht="50" customHeight="1">
-      <c r="A266" s="38"/>
-      <c r="B266" s="38"/>
+      <c r="A266" s="40"/>
+      <c r="B266" s="40"/>
       <c r="C266" s="8" t="s">
         <v>513</v>
       </c>
@@ -15310,12 +16615,12 @@
       <c r="E266" s="10"/>
       <c r="F266" s="10"/>
       <c r="G266" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="267" spans="1:7" ht="50" customHeight="1">
-      <c r="A267" s="38"/>
-      <c r="B267" s="38"/>
+      <c r="A267" s="40"/>
+      <c r="B267" s="40"/>
       <c r="C267" s="8" t="s">
         <v>515</v>
       </c>
@@ -15325,12 +16630,12 @@
       <c r="E267" s="10"/>
       <c r="F267" s="10"/>
       <c r="G267" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="268" spans="1:7" ht="50" customHeight="1">
-      <c r="A268" s="38"/>
-      <c r="B268" s="38"/>
+      <c r="A268" s="40"/>
+      <c r="B268" s="40"/>
       <c r="C268" s="8" t="s">
         <v>517</v>
       </c>
@@ -15340,12 +16645,12 @@
       <c r="E268" s="10"/>
       <c r="F268" s="10"/>
       <c r="G268" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="269" spans="1:7" ht="50" customHeight="1">
-      <c r="A269" s="38"/>
-      <c r="B269" s="39"/>
+      <c r="A269" s="40"/>
+      <c r="B269" s="41"/>
       <c r="C269" s="8" t="s">
         <v>519</v>
       </c>
@@ -15355,13 +16660,13 @@
       <c r="E269" s="10"/>
       <c r="F269" s="10"/>
       <c r="G269" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="270" spans="1:7" ht="50" customHeight="1">
-      <c r="A270" s="38"/>
+      <c r="A270" s="40"/>
       <c r="B270" s="16" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="C270" s="8" t="s">
         <v>521</v>
@@ -15372,13 +16677,13 @@
       <c r="E270" s="10"/>
       <c r="F270" s="10"/>
       <c r="G270" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="271" spans="1:7" ht="50" customHeight="1">
-      <c r="A271" s="38"/>
-      <c r="B271" s="37" t="s">
-        <v>954</v>
+      <c r="A271" s="40"/>
+      <c r="B271" s="39" t="s">
+        <v>952</v>
       </c>
       <c r="C271" s="8" t="s">
         <v>523</v>
@@ -15387,16 +16692,16 @@
         <v>524</v>
       </c>
       <c r="E271" s="10" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="F271" s="10"/>
       <c r="G271" s="35" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="272" spans="1:7" ht="50" customHeight="1">
-      <c r="A272" s="38"/>
-      <c r="B272" s="38"/>
+      <c r="A272" s="40"/>
+      <c r="B272" s="40"/>
       <c r="C272" s="8" t="s">
         <v>525</v>
       </c>
@@ -15406,12 +16711,12 @@
       <c r="E272" s="10"/>
       <c r="F272" s="10"/>
       <c r="G272" s="35" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="273" spans="1:7" ht="50" customHeight="1">
-      <c r="A273" s="38"/>
-      <c r="B273" s="38"/>
+      <c r="A273" s="40"/>
+      <c r="B273" s="40"/>
       <c r="C273" s="8" t="s">
         <v>527</v>
       </c>
@@ -15421,12 +16726,12 @@
       <c r="E273" s="10"/>
       <c r="F273" s="10"/>
       <c r="G273" s="35" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="274" spans="1:7" ht="50" customHeight="1">
-      <c r="A274" s="38"/>
-      <c r="B274" s="39"/>
+      <c r="A274" s="40"/>
+      <c r="B274" s="41"/>
       <c r="C274" s="8" t="s">
         <v>529</v>
       </c>
@@ -15436,13 +16741,13 @@
       <c r="E274" s="10"/>
       <c r="F274" s="10"/>
       <c r="G274" s="35" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="275" spans="1:7" ht="50" customHeight="1">
-      <c r="A275" s="38"/>
-      <c r="B275" s="37" t="s">
-        <v>955</v>
+      <c r="A275" s="40"/>
+      <c r="B275" s="39" t="s">
+        <v>953</v>
       </c>
       <c r="C275" s="8" t="s">
         <v>531</v>
@@ -15453,12 +16758,12 @@
       <c r="E275" s="10"/>
       <c r="F275" s="10"/>
       <c r="G275" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="276" spans="1:7" ht="50" customHeight="1">
-      <c r="A276" s="38"/>
-      <c r="B276" s="38"/>
+      <c r="A276" s="40"/>
+      <c r="B276" s="40"/>
       <c r="C276" s="8" t="s">
         <v>533</v>
       </c>
@@ -15468,12 +16773,12 @@
       <c r="E276" s="10"/>
       <c r="F276" s="10"/>
       <c r="G276" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="277" spans="1:7" ht="50" customHeight="1">
-      <c r="A277" s="38"/>
-      <c r="B277" s="38"/>
+      <c r="A277" s="40"/>
+      <c r="B277" s="40"/>
       <c r="C277" s="8" t="s">
         <v>535</v>
       </c>
@@ -15481,16 +16786,16 @@
         <v>536</v>
       </c>
       <c r="E277" s="10" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="F277" s="10"/>
       <c r="G277" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="278" spans="1:7" ht="50" customHeight="1">
-      <c r="A278" s="38"/>
-      <c r="B278" s="38"/>
+      <c r="A278" s="40"/>
+      <c r="B278" s="40"/>
       <c r="C278" s="8" t="s">
         <v>537</v>
       </c>
@@ -15500,12 +16805,12 @@
       <c r="E278" s="10"/>
       <c r="F278" s="10"/>
       <c r="G278" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="279" spans="1:7" ht="50" customHeight="1">
-      <c r="A279" s="38"/>
-      <c r="B279" s="38"/>
+      <c r="A279" s="40"/>
+      <c r="B279" s="40"/>
       <c r="C279" s="8" t="s">
         <v>539</v>
       </c>
@@ -15515,27 +16820,29 @@
       <c r="E279" s="10"/>
       <c r="F279" s="10"/>
       <c r="G279" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="280" spans="1:7" ht="50" customHeight="1">
-      <c r="A280" s="38"/>
-      <c r="B280" s="38"/>
+      <c r="A280" s="40"/>
+      <c r="B280" s="40"/>
       <c r="C280" s="8" t="s">
         <v>541</v>
       </c>
       <c r="D280" s="9" t="s">
         <v>542</v>
       </c>
-      <c r="E280" s="10"/>
+      <c r="E280" s="10" t="s">
+        <v>985</v>
+      </c>
       <c r="F280" s="10"/>
       <c r="G280" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="281" spans="1:7" ht="50" customHeight="1">
-      <c r="A281" s="38"/>
-      <c r="B281" s="38"/>
+      <c r="A281" s="40"/>
+      <c r="B281" s="40"/>
       <c r="C281" s="8" t="s">
         <v>543</v>
       </c>
@@ -15545,12 +16852,12 @@
       <c r="E281" s="10"/>
       <c r="F281" s="10"/>
       <c r="G281" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="282" spans="1:7" ht="50" customHeight="1">
-      <c r="A282" s="38"/>
-      <c r="B282" s="38"/>
+      <c r="A282" s="40"/>
+      <c r="B282" s="40"/>
       <c r="C282" s="8" t="s">
         <v>545</v>
       </c>
@@ -15560,12 +16867,12 @@
       <c r="E282" s="10"/>
       <c r="F282" s="10"/>
       <c r="G282" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="283" spans="1:7" ht="50" customHeight="1">
-      <c r="A283" s="38"/>
-      <c r="B283" s="38"/>
+      <c r="A283" s="40"/>
+      <c r="B283" s="40"/>
       <c r="C283" s="8" t="s">
         <v>547</v>
       </c>
@@ -15575,12 +16882,12 @@
       <c r="E283" s="10"/>
       <c r="F283" s="10"/>
       <c r="G283" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="284" spans="1:7" ht="50" customHeight="1">
-      <c r="A284" s="38"/>
-      <c r="B284" s="38"/>
+      <c r="A284" s="40"/>
+      <c r="B284" s="40"/>
       <c r="C284" s="8" t="s">
         <v>549</v>
       </c>
@@ -15590,12 +16897,12 @@
       <c r="E284" s="10"/>
       <c r="F284" s="10"/>
       <c r="G284" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="285" spans="1:7" ht="50" customHeight="1">
-      <c r="A285" s="38"/>
-      <c r="B285" s="38"/>
+      <c r="A285" s="40"/>
+      <c r="B285" s="40"/>
       <c r="C285" s="8" t="s">
         <v>551</v>
       </c>
@@ -15605,12 +16912,12 @@
       <c r="E285" s="10"/>
       <c r="F285" s="10"/>
       <c r="G285" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="286" spans="1:7" ht="50" customHeight="1">
-      <c r="A286" s="38"/>
-      <c r="B286" s="38"/>
+      <c r="A286" s="40"/>
+      <c r="B286" s="40"/>
       <c r="C286" s="8" t="s">
         <v>553</v>
       </c>
@@ -15620,12 +16927,12 @@
       <c r="E286" s="10"/>
       <c r="F286" s="10"/>
       <c r="G286" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="287" spans="1:7" ht="50" customHeight="1">
-      <c r="A287" s="38"/>
-      <c r="B287" s="38"/>
+      <c r="A287" s="40"/>
+      <c r="B287" s="40"/>
       <c r="C287" s="8" t="s">
         <v>555</v>
       </c>
@@ -15635,12 +16942,12 @@
       <c r="E287" s="10"/>
       <c r="F287" s="10"/>
       <c r="G287" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="288" spans="1:7" ht="50" customHeight="1">
-      <c r="A288" s="38"/>
-      <c r="B288" s="38"/>
+      <c r="A288" s="40"/>
+      <c r="B288" s="40"/>
       <c r="C288" s="8" t="s">
         <v>557</v>
       </c>
@@ -15650,12 +16957,12 @@
       <c r="E288" s="10"/>
       <c r="F288" s="10"/>
       <c r="G288" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="289" spans="1:7" ht="50" customHeight="1">
-      <c r="A289" s="38"/>
-      <c r="B289" s="38"/>
+      <c r="A289" s="40"/>
+      <c r="B289" s="40"/>
       <c r="C289" s="8" t="s">
         <v>559</v>
       </c>
@@ -15665,12 +16972,12 @@
       <c r="E289" s="10"/>
       <c r="F289" s="10"/>
       <c r="G289" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="290" spans="1:7" ht="50" customHeight="1">
-      <c r="A290" s="38"/>
-      <c r="B290" s="38"/>
+      <c r="A290" s="40"/>
+      <c r="B290" s="40"/>
       <c r="C290" s="8" t="s">
         <v>561</v>
       </c>
@@ -15680,12 +16987,12 @@
       <c r="E290" s="10"/>
       <c r="F290" s="10"/>
       <c r="G290" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="291" spans="1:7" ht="50" customHeight="1">
-      <c r="A291" s="38"/>
-      <c r="B291" s="38"/>
+      <c r="A291" s="40"/>
+      <c r="B291" s="40"/>
       <c r="C291" s="8" t="s">
         <v>563</v>
       </c>
@@ -15695,12 +17002,12 @@
       <c r="E291" s="10"/>
       <c r="F291" s="10"/>
       <c r="G291" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="292" spans="1:7" ht="50" customHeight="1">
-      <c r="A292" s="38"/>
-      <c r="B292" s="38"/>
+      <c r="A292" s="40"/>
+      <c r="B292" s="40"/>
       <c r="C292" s="8" t="s">
         <v>565</v>
       </c>
@@ -15710,12 +17017,12 @@
       <c r="E292" s="10"/>
       <c r="F292" s="10"/>
       <c r="G292" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="293" spans="1:7" ht="50" customHeight="1">
-      <c r="A293" s="38"/>
-      <c r="B293" s="38"/>
+      <c r="A293" s="40"/>
+      <c r="B293" s="40"/>
       <c r="C293" s="8" t="s">
         <v>567</v>
       </c>
@@ -15725,12 +17032,12 @@
       <c r="E293" s="10"/>
       <c r="F293" s="10"/>
       <c r="G293" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="294" spans="1:7" ht="50" customHeight="1">
-      <c r="A294" s="38"/>
-      <c r="B294" s="38"/>
+      <c r="A294" s="40"/>
+      <c r="B294" s="40"/>
       <c r="C294" s="8" t="s">
         <v>569</v>
       </c>
@@ -15740,12 +17047,12 @@
       <c r="E294" s="10"/>
       <c r="F294" s="10"/>
       <c r="G294" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="295" spans="1:7" ht="50" customHeight="1">
-      <c r="A295" s="38"/>
-      <c r="B295" s="38"/>
+      <c r="A295" s="40"/>
+      <c r="B295" s="40"/>
       <c r="C295" s="8" t="s">
         <v>571</v>
       </c>
@@ -15755,12 +17062,12 @@
       <c r="E295" s="10"/>
       <c r="F295" s="10"/>
       <c r="G295" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="296" spans="1:7" ht="50" customHeight="1">
-      <c r="A296" s="38"/>
-      <c r="B296" s="38"/>
+      <c r="A296" s="40"/>
+      <c r="B296" s="40"/>
       <c r="C296" s="8" t="s">
         <v>573</v>
       </c>
@@ -15770,12 +17077,12 @@
       <c r="E296" s="10"/>
       <c r="F296" s="10"/>
       <c r="G296" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="297" spans="1:7" ht="50" customHeight="1">
-      <c r="A297" s="38"/>
-      <c r="B297" s="38"/>
+      <c r="A297" s="40"/>
+      <c r="B297" s="40"/>
       <c r="C297" s="8" t="s">
         <v>575</v>
       </c>
@@ -15785,12 +17092,12 @@
       <c r="E297" s="10"/>
       <c r="F297" s="10"/>
       <c r="G297" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="298" spans="1:7" ht="50" customHeight="1">
-      <c r="A298" s="38"/>
-      <c r="B298" s="38"/>
+      <c r="A298" s="40"/>
+      <c r="B298" s="40"/>
       <c r="C298" s="8" t="s">
         <v>577</v>
       </c>
@@ -15800,12 +17107,12 @@
       <c r="E298" s="10"/>
       <c r="F298" s="10"/>
       <c r="G298" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="299" spans="1:7" ht="50" customHeight="1">
-      <c r="A299" s="38"/>
-      <c r="B299" s="38"/>
+      <c r="A299" s="40"/>
+      <c r="B299" s="40"/>
       <c r="C299" s="8" t="s">
         <v>579</v>
       </c>
@@ -15815,12 +17122,12 @@
       <c r="E299" s="10"/>
       <c r="F299" s="10"/>
       <c r="G299" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="300" spans="1:7" ht="50" customHeight="1">
-      <c r="A300" s="38"/>
-      <c r="B300" s="38"/>
+      <c r="A300" s="40"/>
+      <c r="B300" s="40"/>
       <c r="C300" s="8" t="s">
         <v>581</v>
       </c>
@@ -15830,12 +17137,12 @@
       <c r="E300" s="10"/>
       <c r="F300" s="10"/>
       <c r="G300" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="301" spans="1:7" ht="50" customHeight="1">
-      <c r="A301" s="38"/>
-      <c r="B301" s="38"/>
+      <c r="A301" s="40"/>
+      <c r="B301" s="40"/>
       <c r="C301" s="8" t="s">
         <v>583</v>
       </c>
@@ -15845,12 +17152,12 @@
       <c r="E301" s="10"/>
       <c r="F301" s="10"/>
       <c r="G301" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="302" spans="1:7" ht="50" customHeight="1">
-      <c r="A302" s="38"/>
-      <c r="B302" s="38"/>
+      <c r="A302" s="40"/>
+      <c r="B302" s="40"/>
       <c r="C302" s="8" t="s">
         <v>585</v>
       </c>
@@ -15860,12 +17167,12 @@
       <c r="E302" s="10"/>
       <c r="F302" s="10"/>
       <c r="G302" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="303" spans="1:7" ht="50" customHeight="1">
-      <c r="A303" s="38"/>
-      <c r="B303" s="38"/>
+      <c r="A303" s="40"/>
+      <c r="B303" s="40"/>
       <c r="C303" s="8" t="s">
         <v>587</v>
       </c>
@@ -15875,12 +17182,12 @@
       <c r="E303" s="10"/>
       <c r="F303" s="10"/>
       <c r="G303" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="304" spans="1:7" ht="50" customHeight="1">
-      <c r="A304" s="38"/>
-      <c r="B304" s="38"/>
+      <c r="A304" s="40"/>
+      <c r="B304" s="40"/>
       <c r="C304" s="8" t="s">
         <v>589</v>
       </c>
@@ -15890,12 +17197,12 @@
       <c r="E304" s="10"/>
       <c r="F304" s="10"/>
       <c r="G304" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="305" spans="1:7" ht="50" customHeight="1">
-      <c r="A305" s="38"/>
-      <c r="B305" s="38"/>
+      <c r="A305" s="40"/>
+      <c r="B305" s="40"/>
       <c r="C305" s="8" t="s">
         <v>591</v>
       </c>
@@ -15905,12 +17212,12 @@
       <c r="E305" s="10"/>
       <c r="F305" s="10"/>
       <c r="G305" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="306" spans="1:7" ht="50" customHeight="1">
-      <c r="A306" s="38"/>
-      <c r="B306" s="38"/>
+      <c r="A306" s="40"/>
+      <c r="B306" s="40"/>
       <c r="C306" s="8" t="s">
         <v>593</v>
       </c>
@@ -15920,12 +17227,12 @@
       <c r="E306" s="10"/>
       <c r="F306" s="10"/>
       <c r="G306" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="307" spans="1:7" ht="50" customHeight="1">
-      <c r="A307" s="38"/>
-      <c r="B307" s="39"/>
+      <c r="A307" s="40"/>
+      <c r="B307" s="41"/>
       <c r="C307" s="8" t="s">
         <v>595</v>
       </c>
@@ -15935,13 +17242,13 @@
       <c r="E307" s="10"/>
       <c r="F307" s="10"/>
       <c r="G307" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="308" spans="1:7" ht="50" customHeight="1">
-      <c r="A308" s="38"/>
+      <c r="A308" s="40"/>
       <c r="B308" s="16" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="C308" s="8" t="s">
         <v>597</v>
@@ -15950,17 +17257,17 @@
         <v>598</v>
       </c>
       <c r="E308" s="10" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="F308" s="10"/>
       <c r="G308" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="309" spans="1:7" ht="50" customHeight="1">
-      <c r="A309" s="38"/>
+      <c r="A309" s="40"/>
       <c r="B309" s="16" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="C309" s="8" t="s">
         <v>599</v>
@@ -15969,17 +17276,17 @@
         <v>600</v>
       </c>
       <c r="E309" s="10" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="F309" s="10"/>
       <c r="G309" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="310" spans="1:7" ht="50" customHeight="1">
-      <c r="A310" s="38"/>
-      <c r="B310" s="37" t="s">
-        <v>958</v>
+      <c r="A310" s="40"/>
+      <c r="B310" s="39" t="s">
+        <v>956</v>
       </c>
       <c r="C310" s="8" t="s">
         <v>601</v>
@@ -15988,16 +17295,16 @@
         <v>602</v>
       </c>
       <c r="E310" s="10" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="F310" s="10"/>
       <c r="G310" s="26" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="311" spans="1:7" ht="50" customHeight="1">
-      <c r="A311" s="38"/>
-      <c r="B311" s="38"/>
+      <c r="A311" s="40"/>
+      <c r="B311" s="40"/>
       <c r="C311" s="8" t="s">
         <v>603</v>
       </c>
@@ -16005,16 +17312,16 @@
         <v>604</v>
       </c>
       <c r="E311" s="10" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="F311" s="10"/>
       <c r="G311" s="26" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="312" spans="1:7" ht="50" customHeight="1">
-      <c r="A312" s="38"/>
-      <c r="B312" s="39"/>
+      <c r="A312" s="40"/>
+      <c r="B312" s="41"/>
       <c r="C312" s="8" t="s">
         <v>605</v>
       </c>
@@ -16022,17 +17329,17 @@
         <v>606</v>
       </c>
       <c r="E312" s="10" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="F312" s="10"/>
       <c r="G312" s="26" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="313" spans="1:7" ht="50" customHeight="1">
-      <c r="A313" s="38"/>
-      <c r="B313" s="37" t="s">
-        <v>959</v>
+      <c r="A313" s="40"/>
+      <c r="B313" s="39" t="s">
+        <v>957</v>
       </c>
       <c r="C313" s="8" t="s">
         <v>607</v>
@@ -16041,16 +17348,16 @@
         <v>608</v>
       </c>
       <c r="E313" s="18" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="F313" s="18"/>
       <c r="G313" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="314" spans="1:7" ht="50" customHeight="1">
-      <c r="A314" s="38"/>
-      <c r="B314" s="38"/>
+      <c r="A314" s="40"/>
+      <c r="B314" s="40"/>
       <c r="C314" s="8" t="s">
         <v>609</v>
       </c>
@@ -16058,16 +17365,16 @@
         <v>610</v>
       </c>
       <c r="E314" s="18" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="F314" s="18"/>
       <c r="G314" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="315" spans="1:7" ht="50" customHeight="1">
-      <c r="A315" s="38"/>
-      <c r="B315" s="39"/>
+      <c r="A315" s="40"/>
+      <c r="B315" s="41"/>
       <c r="C315" s="8" t="s">
         <v>611</v>
       </c>
@@ -16077,13 +17384,13 @@
       <c r="E315" s="10"/>
       <c r="F315" s="10"/>
       <c r="G315" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="316" spans="1:7" ht="50" customHeight="1">
-      <c r="A316" s="38"/>
-      <c r="B316" s="37" t="s">
-        <v>960</v>
+      <c r="A316" s="40"/>
+      <c r="B316" s="39" t="s">
+        <v>958</v>
       </c>
       <c r="C316" s="8" t="s">
         <v>613</v>
@@ -16092,16 +17399,16 @@
         <v>614</v>
       </c>
       <c r="E316" s="10" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="F316" s="10"/>
       <c r="G316" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="317" spans="1:7" ht="50" customHeight="1">
-      <c r="A317" s="38"/>
-      <c r="B317" s="38"/>
+      <c r="A317" s="40"/>
+      <c r="B317" s="40"/>
       <c r="C317" s="8" t="s">
         <v>615</v>
       </c>
@@ -16109,16 +17416,16 @@
         <v>616</v>
       </c>
       <c r="E317" s="10" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="F317" s="10"/>
       <c r="G317" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="318" spans="1:7" ht="50" customHeight="1">
-      <c r="A318" s="38"/>
-      <c r="B318" s="38"/>
+      <c r="A318" s="40"/>
+      <c r="B318" s="40"/>
       <c r="C318" s="8" t="s">
         <v>617</v>
       </c>
@@ -16126,16 +17433,16 @@
         <v>618</v>
       </c>
       <c r="E318" s="10" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="F318" s="10"/>
       <c r="G318" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="319" spans="1:7" ht="50" customHeight="1">
-      <c r="A319" s="38"/>
-      <c r="B319" s="38"/>
+      <c r="A319" s="40"/>
+      <c r="B319" s="40"/>
       <c r="C319" s="8" t="s">
         <v>619</v>
       </c>
@@ -16145,12 +17452,12 @@
       <c r="E319" s="10"/>
       <c r="F319" s="10"/>
       <c r="G319" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="320" spans="1:7" ht="50" customHeight="1">
-      <c r="A320" s="38"/>
-      <c r="B320" s="38"/>
+      <c r="A320" s="40"/>
+      <c r="B320" s="40"/>
       <c r="C320" s="8" t="s">
         <v>621</v>
       </c>
@@ -16160,12 +17467,12 @@
       <c r="E320" s="10"/>
       <c r="F320" s="10"/>
       <c r="G320" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="321" spans="1:7" ht="50" customHeight="1">
-      <c r="A321" s="38"/>
-      <c r="B321" s="38"/>
+      <c r="A321" s="40"/>
+      <c r="B321" s="40"/>
       <c r="C321" s="8" t="s">
         <v>623</v>
       </c>
@@ -16175,12 +17482,12 @@
       <c r="E321" s="10"/>
       <c r="F321" s="10"/>
       <c r="G321" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="322" spans="1:7" ht="50" customHeight="1">
-      <c r="A322" s="38"/>
-      <c r="B322" s="38"/>
+      <c r="A322" s="40"/>
+      <c r="B322" s="40"/>
       <c r="C322" s="8" t="s">
         <v>625</v>
       </c>
@@ -16190,12 +17497,12 @@
       <c r="E322" s="10"/>
       <c r="F322" s="10"/>
       <c r="G322" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="323" spans="1:7" ht="50" customHeight="1">
-      <c r="A323" s="38"/>
-      <c r="B323" s="38"/>
+      <c r="A323" s="40"/>
+      <c r="B323" s="40"/>
       <c r="C323" s="8" t="s">
         <v>627</v>
       </c>
@@ -16205,12 +17512,12 @@
       <c r="E323" s="10"/>
       <c r="F323" s="10"/>
       <c r="G323" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="324" spans="1:7" ht="50" customHeight="1">
-      <c r="A324" s="38"/>
-      <c r="B324" s="38"/>
+      <c r="A324" s="40"/>
+      <c r="B324" s="40"/>
       <c r="C324" s="8" t="s">
         <v>629</v>
       </c>
@@ -16220,12 +17527,12 @@
       <c r="E324" s="10"/>
       <c r="F324" s="10"/>
       <c r="G324" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="325" spans="1:7" ht="50" customHeight="1">
-      <c r="A325" s="38"/>
-      <c r="B325" s="39"/>
+      <c r="A325" s="40"/>
+      <c r="B325" s="41"/>
       <c r="C325" s="8" t="s">
         <v>631</v>
       </c>
@@ -16235,13 +17542,13 @@
       <c r="E325" s="10"/>
       <c r="F325" s="10"/>
       <c r="G325" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="326" spans="1:7" ht="50" customHeight="1">
-      <c r="A326" s="38"/>
+      <c r="A326" s="40"/>
       <c r="B326" s="16" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="C326" s="8" t="s">
         <v>633</v>
@@ -16250,17 +17557,17 @@
         <v>634</v>
       </c>
       <c r="E326" s="10" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="F326" s="10"/>
       <c r="G326" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="327" spans="1:7" ht="50" customHeight="1">
-      <c r="A327" s="38"/>
-      <c r="B327" s="37" t="s">
-        <v>962</v>
+      <c r="A327" s="40"/>
+      <c r="B327" s="39" t="s">
+        <v>960</v>
       </c>
       <c r="C327" s="8" t="s">
         <v>635</v>
@@ -16271,12 +17578,12 @@
       <c r="E327" s="18"/>
       <c r="F327" s="18"/>
       <c r="G327" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="328" spans="1:7" ht="50" customHeight="1">
-      <c r="A328" s="38"/>
-      <c r="B328" s="38"/>
+      <c r="A328" s="40"/>
+      <c r="B328" s="40"/>
       <c r="C328" s="8" t="s">
         <v>637</v>
       </c>
@@ -16286,12 +17593,12 @@
       <c r="E328" s="18"/>
       <c r="F328" s="18"/>
       <c r="G328" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="329" spans="1:7" ht="50" customHeight="1">
-      <c r="A329" s="38"/>
-      <c r="B329" s="38"/>
+      <c r="A329" s="40"/>
+      <c r="B329" s="40"/>
       <c r="C329" s="8" t="s">
         <v>639</v>
       </c>
@@ -16301,12 +17608,12 @@
       <c r="E329" s="18"/>
       <c r="F329" s="18"/>
       <c r="G329" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="330" spans="1:7" ht="50" customHeight="1">
-      <c r="A330" s="38"/>
-      <c r="B330" s="38"/>
+      <c r="A330" s="40"/>
+      <c r="B330" s="40"/>
       <c r="C330" s="8" t="s">
         <v>641</v>
       </c>
@@ -16316,12 +17623,12 @@
       <c r="E330" s="18"/>
       <c r="F330" s="18"/>
       <c r="G330" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="331" spans="1:7" ht="50" customHeight="1">
-      <c r="A331" s="39"/>
-      <c r="B331" s="39"/>
+      <c r="A331" s="41"/>
+      <c r="B331" s="41"/>
       <c r="C331" s="8" t="s">
         <v>643</v>
       </c>
@@ -16331,7 +17638,7 @@
       <c r="E331" s="18"/>
       <c r="F331" s="18"/>
       <c r="G331" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="332" spans="1:7" ht="50" customHeight="1">
@@ -16341,8 +17648,8 @@
       <c r="F332" s="18"/>
     </row>
     <row r="333" spans="1:7" ht="50" customHeight="1">
-      <c r="A333" s="37" t="s">
-        <v>913</v>
+      <c r="A333" s="39" t="s">
+        <v>912</v>
       </c>
       <c r="C333" s="8" t="s">
         <v>645</v>
@@ -16351,15 +17658,15 @@
         <v>646</v>
       </c>
       <c r="E333" s="10" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="F333" s="10"/>
       <c r="G333" s="35" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="334" spans="1:7" ht="50" customHeight="1">
-      <c r="A334" s="38"/>
+      <c r="A334" s="40"/>
       <c r="C334" s="8" t="s">
         <v>647</v>
       </c>
@@ -16369,11 +17676,11 @@
       <c r="E334" s="18"/>
       <c r="F334" s="18"/>
       <c r="G334" s="36" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="335" spans="1:7" ht="50" customHeight="1">
-      <c r="A335" s="38"/>
+      <c r="A335" s="40"/>
       <c r="C335" s="8" t="s">
         <v>649</v>
       </c>
@@ -16383,11 +17690,11 @@
       <c r="E335" s="10"/>
       <c r="F335" s="10"/>
       <c r="G335" s="36" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="336" spans="1:7" ht="50" customHeight="1">
-      <c r="A336" s="38"/>
+      <c r="A336" s="40"/>
       <c r="C336" s="8" t="s">
         <v>651</v>
       </c>
@@ -16397,11 +17704,11 @@
       <c r="E336" s="10"/>
       <c r="F336" s="10"/>
       <c r="G336" s="36" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="337" spans="1:7" ht="50" customHeight="1">
-      <c r="A337" s="38"/>
+      <c r="A337" s="40"/>
       <c r="C337" s="8" t="s">
         <v>653</v>
       </c>
@@ -16411,11 +17718,11 @@
       <c r="E337" s="10"/>
       <c r="F337" s="10"/>
       <c r="G337" s="36" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="338" spans="1:7" ht="50" customHeight="1">
-      <c r="A338" s="38"/>
+      <c r="A338" s="40"/>
       <c r="C338" s="8" t="s">
         <v>655</v>
       </c>
@@ -16425,11 +17732,11 @@
       <c r="E338" s="10"/>
       <c r="F338" s="10"/>
       <c r="G338" s="36" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="339" spans="1:7" ht="50" customHeight="1">
-      <c r="A339" s="38"/>
+      <c r="A339" s="40"/>
       <c r="C339" s="8" t="s">
         <v>657</v>
       </c>
@@ -16437,15 +17744,15 @@
         <v>658</v>
       </c>
       <c r="E339" s="10" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="F339" s="10"/>
       <c r="G339" s="35" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="340" spans="1:7" ht="50" customHeight="1">
-      <c r="A340" s="38"/>
+      <c r="A340" s="40"/>
       <c r="C340" s="8" t="s">
         <v>659</v>
       </c>
@@ -16455,11 +17762,11 @@
       <c r="E340" s="10"/>
       <c r="F340" s="10"/>
       <c r="G340" s="36" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="341" spans="1:7" ht="50" customHeight="1">
-      <c r="A341" s="38"/>
+      <c r="A341" s="40"/>
       <c r="C341" s="8" t="s">
         <v>661</v>
       </c>
@@ -16469,25 +17776,27 @@
       <c r="E341" s="10"/>
       <c r="F341" s="10"/>
       <c r="G341" s="36" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="342" spans="1:7" ht="50" customHeight="1">
-      <c r="A342" s="38"/>
+      <c r="A342" s="40"/>
       <c r="C342" s="8" t="s">
         <v>663</v>
       </c>
       <c r="D342" s="9" t="s">
         <v>664</v>
       </c>
-      <c r="E342" s="10"/>
+      <c r="E342" s="10" t="s">
+        <v>983</v>
+      </c>
       <c r="F342" s="10"/>
       <c r="G342" s="35" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="343" spans="1:7" ht="50" customHeight="1">
-      <c r="A343" s="38"/>
+      <c r="A343" s="40"/>
       <c r="C343" s="8" t="s">
         <v>665</v>
       </c>
@@ -16497,11 +17806,11 @@
       <c r="E343" s="10"/>
       <c r="F343" s="10"/>
       <c r="G343" s="36" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="344" spans="1:7" ht="50" customHeight="1">
-      <c r="A344" s="38"/>
+      <c r="A344" s="40"/>
       <c r="C344" s="8" t="s">
         <v>667</v>
       </c>
@@ -16511,11 +17820,11 @@
       <c r="E344" s="10"/>
       <c r="F344" s="10"/>
       <c r="G344" s="36" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="345" spans="1:7" ht="50" customHeight="1">
-      <c r="A345" s="38"/>
+      <c r="A345" s="40"/>
       <c r="C345" s="8" t="s">
         <v>669</v>
       </c>
@@ -16525,11 +17834,11 @@
       <c r="E345" s="10"/>
       <c r="F345" s="10"/>
       <c r="G345" s="36" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="346" spans="1:7" ht="50" customHeight="1">
-      <c r="A346" s="38"/>
+      <c r="A346" s="40"/>
       <c r="C346" s="8" t="s">
         <v>671</v>
       </c>
@@ -16537,15 +17846,15 @@
         <v>672</v>
       </c>
       <c r="E346" s="10" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="F346" s="10"/>
       <c r="G346" s="36" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="347" spans="1:7" ht="50" customHeight="1">
-      <c r="A347" s="38"/>
+      <c r="A347" s="40"/>
       <c r="C347" s="8" t="s">
         <v>673</v>
       </c>
@@ -16553,15 +17862,15 @@
         <v>674</v>
       </c>
       <c r="E347" s="10" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="F347" s="10"/>
       <c r="G347" s="36" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="348" spans="1:7" ht="50" customHeight="1">
-      <c r="A348" s="38"/>
+      <c r="A348" s="40"/>
       <c r="C348" s="8" t="s">
         <v>675</v>
       </c>
@@ -16571,11 +17880,11 @@
       <c r="E348" s="10"/>
       <c r="F348" s="10"/>
       <c r="G348" s="36" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="349" spans="1:7" ht="50" customHeight="1">
-      <c r="A349" s="38"/>
+      <c r="A349" s="40"/>
       <c r="C349" s="8" t="s">
         <v>677</v>
       </c>
@@ -16585,11 +17894,11 @@
       <c r="E349" s="10"/>
       <c r="F349" s="10"/>
       <c r="G349" s="36" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="350" spans="1:7" ht="50" customHeight="1">
-      <c r="A350" s="38"/>
+      <c r="A350" s="40"/>
       <c r="C350" s="8" t="s">
         <v>679</v>
       </c>
@@ -16597,15 +17906,15 @@
         <v>680</v>
       </c>
       <c r="E350" s="10" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="F350" s="10"/>
       <c r="G350" s="36" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="351" spans="1:7" ht="50" customHeight="1">
-      <c r="A351" s="38"/>
+      <c r="A351" s="40"/>
       <c r="C351" s="8" t="s">
         <v>681</v>
       </c>
@@ -16615,11 +17924,11 @@
       <c r="E351" s="10"/>
       <c r="F351" s="10"/>
       <c r="G351" s="36" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="352" spans="1:7" ht="50" customHeight="1">
-      <c r="A352" s="38"/>
+      <c r="A352" s="40"/>
       <c r="C352" s="8" t="s">
         <v>683</v>
       </c>
@@ -16627,15 +17936,15 @@
         <v>684</v>
       </c>
       <c r="E352" s="10" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="F352" s="10"/>
       <c r="G352" s="36" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="353" spans="1:7" ht="50" customHeight="1">
-      <c r="A353" s="38"/>
+      <c r="A353" s="40"/>
       <c r="C353" s="8" t="s">
         <v>685</v>
       </c>
@@ -16645,11 +17954,11 @@
       <c r="E353" s="10"/>
       <c r="F353" s="10"/>
       <c r="G353" s="36" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="354" spans="1:7" ht="50" customHeight="1">
-      <c r="A354" s="38"/>
+      <c r="A354" s="40"/>
       <c r="C354" s="8" t="s">
         <v>687</v>
       </c>
@@ -16657,15 +17966,15 @@
         <v>688</v>
       </c>
       <c r="E354" s="10" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="F354" s="10"/>
       <c r="G354" s="36" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="355" spans="1:7" ht="50" customHeight="1">
-      <c r="A355" s="38"/>
+      <c r="A355" s="40"/>
       <c r="C355" s="8" t="s">
         <v>689</v>
       </c>
@@ -16673,15 +17982,15 @@
         <v>690</v>
       </c>
       <c r="E355" s="10" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="F355" s="10"/>
       <c r="G355" s="36" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="356" spans="1:7" ht="50" customHeight="1">
-      <c r="A356" s="38"/>
+      <c r="A356" s="40"/>
       <c r="C356" s="8" t="s">
         <v>691</v>
       </c>
@@ -16689,15 +17998,15 @@
         <v>692</v>
       </c>
       <c r="E356" s="10" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="F356" s="10"/>
       <c r="G356" s="36" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="357" spans="1:7" ht="50" customHeight="1">
-      <c r="A357" s="38"/>
+      <c r="A357" s="40"/>
       <c r="C357" s="8" t="s">
         <v>693</v>
       </c>
@@ -16705,15 +18014,15 @@
         <v>694</v>
       </c>
       <c r="E357" s="10" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="F357" s="10"/>
       <c r="G357" s="36" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="358" spans="1:7" ht="50" customHeight="1">
-      <c r="A358" s="38"/>
+      <c r="A358" s="40"/>
       <c r="C358" s="8" t="s">
         <v>695</v>
       </c>
@@ -16723,11 +18032,11 @@
       <c r="E358" s="10"/>
       <c r="F358" s="10"/>
       <c r="G358" s="36" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="359" spans="1:7" ht="50" customHeight="1">
-      <c r="A359" s="38"/>
+      <c r="A359" s="40"/>
       <c r="C359" s="8" t="s">
         <v>697</v>
       </c>
@@ -16737,11 +18046,11 @@
       <c r="E359" s="10"/>
       <c r="F359" s="10"/>
       <c r="G359" s="36" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="360" spans="1:7" ht="50" customHeight="1">
-      <c r="A360" s="38"/>
+      <c r="A360" s="40"/>
       <c r="C360" s="8" t="s">
         <v>699</v>
       </c>
@@ -16751,11 +18060,11 @@
       <c r="E360" s="10"/>
       <c r="F360" s="10"/>
       <c r="G360" s="36" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="361" spans="1:7" ht="50" customHeight="1">
-      <c r="A361" s="38"/>
+      <c r="A361" s="40"/>
       <c r="C361" s="8" t="s">
         <v>701</v>
       </c>
@@ -16765,11 +18074,11 @@
       <c r="E361" s="10"/>
       <c r="F361" s="10"/>
       <c r="G361" s="36" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="362" spans="1:7" ht="50" customHeight="1">
-      <c r="A362" s="38"/>
+      <c r="A362" s="40"/>
       <c r="C362" s="8" t="s">
         <v>703</v>
       </c>
@@ -16779,11 +18088,11 @@
       <c r="E362" s="10"/>
       <c r="F362" s="10"/>
       <c r="G362" s="36" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="363" spans="1:7" ht="50" customHeight="1">
-      <c r="A363" s="38"/>
+      <c r="A363" s="40"/>
       <c r="C363" s="8" t="s">
         <v>705</v>
       </c>
@@ -16791,15 +18100,15 @@
         <v>706</v>
       </c>
       <c r="E363" s="10" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="F363" s="10"/>
       <c r="G363" s="36" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="364" spans="1:7" ht="50" customHeight="1">
-      <c r="A364" s="38"/>
+      <c r="A364" s="40"/>
       <c r="C364" s="8" t="s">
         <v>707</v>
       </c>
@@ -16807,15 +18116,15 @@
         <v>708</v>
       </c>
       <c r="E364" s="10" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="F364" s="10"/>
       <c r="G364" s="36" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="365" spans="1:7" ht="50" customHeight="1">
-      <c r="A365" s="38"/>
+      <c r="A365" s="40"/>
       <c r="C365" s="8" t="s">
         <v>709</v>
       </c>
@@ -16825,11 +18134,11 @@
       <c r="E365" s="10"/>
       <c r="F365" s="10"/>
       <c r="G365" s="36" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="366" spans="1:7" ht="50" customHeight="1">
-      <c r="A366" s="38"/>
+      <c r="A366" s="40"/>
       <c r="C366" s="8" t="s">
         <v>711</v>
       </c>
@@ -16837,15 +18146,15 @@
         <v>712</v>
       </c>
       <c r="E366" s="10" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="F366" s="10"/>
       <c r="G366" s="36" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="367" spans="1:7" ht="50" customHeight="1">
-      <c r="A367" s="38"/>
+      <c r="A367" s="40"/>
       <c r="C367" s="8" t="s">
         <v>713</v>
       </c>
@@ -16853,15 +18162,15 @@
         <v>714</v>
       </c>
       <c r="E367" s="10" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F367" s="10"/>
       <c r="G367" s="36" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="368" spans="1:7" ht="50" customHeight="1">
-      <c r="A368" s="38"/>
+      <c r="A368" s="40"/>
       <c r="C368" s="8" t="s">
         <v>715</v>
       </c>
@@ -16869,15 +18178,15 @@
         <v>716</v>
       </c>
       <c r="E368" s="10" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="F368" s="10"/>
       <c r="G368" s="36" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="369" spans="1:7" ht="50" customHeight="1">
-      <c r="A369" s="38"/>
+      <c r="A369" s="40"/>
       <c r="C369" s="8" t="s">
         <v>717</v>
       </c>
@@ -16885,15 +18194,15 @@
         <v>718</v>
       </c>
       <c r="E369" s="10" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F369" s="10"/>
       <c r="G369" s="36" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="370" spans="1:7" ht="50" customHeight="1">
-      <c r="A370" s="38"/>
+      <c r="A370" s="40"/>
       <c r="C370" s="8" t="s">
         <v>719</v>
       </c>
@@ -16901,15 +18210,15 @@
         <v>720</v>
       </c>
       <c r="E370" s="10" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="F370" s="10"/>
       <c r="G370" s="36" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="371" spans="1:7" ht="50" customHeight="1">
-      <c r="A371" s="38"/>
+      <c r="A371" s="40"/>
       <c r="C371" s="8" t="s">
         <v>721</v>
       </c>
@@ -16917,15 +18226,15 @@
         <v>722</v>
       </c>
       <c r="E371" s="10" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F371" s="10"/>
       <c r="G371" s="36" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="372" spans="1:7" ht="50" customHeight="1">
-      <c r="A372" s="38"/>
+      <c r="A372" s="40"/>
       <c r="C372" s="8" t="s">
         <v>723</v>
       </c>
@@ -16933,15 +18242,15 @@
         <v>724</v>
       </c>
       <c r="E372" s="10" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F372" s="10"/>
       <c r="G372" s="36" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="373" spans="1:7" ht="50" customHeight="1">
-      <c r="A373" s="38"/>
+      <c r="A373" s="40"/>
       <c r="C373" s="8" t="s">
         <v>725</v>
       </c>
@@ -16949,15 +18258,15 @@
         <v>726</v>
       </c>
       <c r="E373" s="10" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F373" s="10"/>
       <c r="G373" s="36" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="374" spans="1:7" ht="50" customHeight="1">
-      <c r="A374" s="38"/>
+      <c r="A374" s="40"/>
       <c r="C374" s="8" t="s">
         <v>727</v>
       </c>
@@ -16965,15 +18274,15 @@
         <v>728</v>
       </c>
       <c r="E374" s="10" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F374" s="10"/>
       <c r="G374" s="36" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="375" spans="1:7" ht="50" customHeight="1">
-      <c r="A375" s="38"/>
+      <c r="A375" s="40"/>
       <c r="C375" s="8" t="s">
         <v>729</v>
       </c>
@@ -16981,15 +18290,15 @@
         <v>730</v>
       </c>
       <c r="E375" s="10" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="F375" s="10"/>
       <c r="G375" s="36" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="376" spans="1:7" ht="50" customHeight="1">
-      <c r="A376" s="38"/>
+      <c r="A376" s="40"/>
       <c r="C376" s="8" t="s">
         <v>731</v>
       </c>
@@ -16999,11 +18308,11 @@
       <c r="E376" s="10"/>
       <c r="F376" s="10"/>
       <c r="G376" s="36" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="377" spans="1:7" ht="50" customHeight="1">
-      <c r="A377" s="38"/>
+      <c r="A377" s="40"/>
       <c r="C377" s="8" t="s">
         <v>733</v>
       </c>
@@ -17011,15 +18320,15 @@
         <v>734</v>
       </c>
       <c r="E377" s="10" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="F377" s="10"/>
       <c r="G377" s="36" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="378" spans="1:7" ht="50" customHeight="1">
-      <c r="A378" s="38"/>
+      <c r="A378" s="40"/>
       <c r="C378" s="8" t="s">
         <v>735</v>
       </c>
@@ -17029,11 +18338,11 @@
       <c r="E378" s="10"/>
       <c r="F378" s="10"/>
       <c r="G378" s="36" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="379" spans="1:7" ht="50" customHeight="1">
-      <c r="A379" s="38"/>
+      <c r="A379" s="40"/>
       <c r="C379" s="8" t="s">
         <v>737</v>
       </c>
@@ -17043,11 +18352,11 @@
       <c r="E379" s="10"/>
       <c r="F379" s="10"/>
       <c r="G379" s="36" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="380" spans="1:7" ht="50" customHeight="1">
-      <c r="A380" s="38"/>
+      <c r="A380" s="40"/>
       <c r="C380" s="8" t="s">
         <v>739</v>
       </c>
@@ -17057,11 +18366,11 @@
       <c r="E380" s="10"/>
       <c r="F380" s="10"/>
       <c r="G380" s="36" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="381" spans="1:7" ht="50" customHeight="1">
-      <c r="A381" s="38"/>
+      <c r="A381" s="40"/>
       <c r="C381" s="8" t="s">
         <v>741</v>
       </c>
@@ -17071,11 +18380,11 @@
       <c r="E381" s="10"/>
       <c r="F381" s="10"/>
       <c r="G381" s="36" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="382" spans="1:7" ht="50" customHeight="1">
-      <c r="A382" s="38"/>
+      <c r="A382" s="40"/>
       <c r="C382" s="8" t="s">
         <v>743</v>
       </c>
@@ -17085,11 +18394,11 @@
       <c r="E382" s="10"/>
       <c r="F382" s="10"/>
       <c r="G382" s="36" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="383" spans="1:7" ht="50" customHeight="1">
-      <c r="A383" s="38"/>
+      <c r="A383" s="40"/>
       <c r="C383" s="8" t="s">
         <v>745</v>
       </c>
@@ -17099,11 +18408,11 @@
       <c r="E383" s="10"/>
       <c r="F383" s="10"/>
       <c r="G383" s="36" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="384" spans="1:7" ht="50" customHeight="1">
-      <c r="A384" s="38"/>
+      <c r="A384" s="40"/>
       <c r="C384" s="8" t="s">
         <v>747</v>
       </c>
@@ -17111,15 +18420,15 @@
         <v>748</v>
       </c>
       <c r="E384" s="10" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="F384" s="10"/>
       <c r="G384" s="36" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="385" spans="1:7" ht="50" customHeight="1">
-      <c r="A385" s="38"/>
+      <c r="A385" s="40"/>
       <c r="C385" s="8" t="s">
         <v>749</v>
       </c>
@@ -17129,11 +18438,11 @@
       <c r="E385" s="10"/>
       <c r="F385" s="10"/>
       <c r="G385" s="36" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="386" spans="1:7" ht="50" customHeight="1">
-      <c r="A386" s="38"/>
+      <c r="A386" s="40"/>
       <c r="C386" s="8" t="s">
         <v>751</v>
       </c>
@@ -17141,15 +18450,15 @@
         <v>752</v>
       </c>
       <c r="E386" s="10" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="F386" s="10"/>
       <c r="G386" s="36" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="387" spans="1:7" ht="50" customHeight="1">
-      <c r="A387" s="38"/>
+      <c r="A387" s="40"/>
       <c r="C387" s="8" t="s">
         <v>753</v>
       </c>
@@ -17159,11 +18468,11 @@
       <c r="E387" s="10"/>
       <c r="F387" s="10"/>
       <c r="G387" s="36" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="388" spans="1:7" ht="50" customHeight="1">
-      <c r="A388" s="38"/>
+      <c r="A388" s="40"/>
       <c r="C388" s="8" t="s">
         <v>755</v>
       </c>
@@ -17173,11 +18482,11 @@
       <c r="E388" s="10"/>
       <c r="F388" s="10"/>
       <c r="G388" s="36" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="389" spans="1:7" ht="50" customHeight="1">
-      <c r="A389" s="38"/>
+      <c r="A389" s="40"/>
       <c r="C389" s="8" t="s">
         <v>757</v>
       </c>
@@ -17187,11 +18496,11 @@
       <c r="E389" s="10"/>
       <c r="F389" s="10"/>
       <c r="G389" s="36" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="390" spans="1:7" ht="50" customHeight="1">
-      <c r="A390" s="38"/>
+      <c r="A390" s="40"/>
       <c r="C390" s="8" t="s">
         <v>759</v>
       </c>
@@ -17201,11 +18510,11 @@
       <c r="E390" s="10"/>
       <c r="F390" s="10"/>
       <c r="G390" s="36" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="391" spans="1:7" ht="50" customHeight="1">
-      <c r="A391" s="38"/>
+      <c r="A391" s="40"/>
       <c r="C391" s="8" t="s">
         <v>761</v>
       </c>
@@ -17215,11 +18524,11 @@
       <c r="E391" s="10"/>
       <c r="F391" s="10"/>
       <c r="G391" s="36" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="392" spans="1:7" ht="50" customHeight="1">
-      <c r="A392" s="38"/>
+      <c r="A392" s="40"/>
       <c r="C392" s="8" t="s">
         <v>763</v>
       </c>
@@ -17229,11 +18538,11 @@
       <c r="E392" s="10"/>
       <c r="F392" s="10"/>
       <c r="G392" s="36" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="393" spans="1:7" ht="50" customHeight="1">
-      <c r="A393" s="38"/>
+      <c r="A393" s="40"/>
       <c r="C393" s="8" t="s">
         <v>765</v>
       </c>
@@ -17243,11 +18552,11 @@
       <c r="E393" s="10"/>
       <c r="F393" s="10"/>
       <c r="G393" s="36" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="394" spans="1:7" ht="50" customHeight="1">
-      <c r="A394" s="38"/>
+      <c r="A394" s="40"/>
       <c r="C394" s="8" t="s">
         <v>767</v>
       </c>
@@ -17257,25 +18566,27 @@
       <c r="E394" s="10"/>
       <c r="F394" s="10"/>
       <c r="G394" s="36" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="395" spans="1:7" ht="50" customHeight="1">
-      <c r="A395" s="38"/>
+      <c r="A395" s="40"/>
       <c r="C395" s="8" t="s">
         <v>769</v>
       </c>
       <c r="D395" s="9" t="s">
         <v>770</v>
       </c>
-      <c r="E395" s="10"/>
+      <c r="E395" s="10" t="s">
+        <v>982</v>
+      </c>
       <c r="F395" s="10"/>
       <c r="G395" s="36" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="396" spans="1:7" ht="50" customHeight="1">
-      <c r="A396" s="38"/>
+      <c r="A396" s="40"/>
       <c r="C396" s="8" t="s">
         <v>771</v>
       </c>
@@ -17285,11 +18596,11 @@
       <c r="E396" s="10"/>
       <c r="F396" s="10"/>
       <c r="G396" s="36" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="397" spans="1:7" ht="50" customHeight="1">
-      <c r="A397" s="38"/>
+      <c r="A397" s="40"/>
       <c r="C397" s="8" t="s">
         <v>773</v>
       </c>
@@ -17299,11 +18610,11 @@
       <c r="E397" s="10"/>
       <c r="F397" s="10"/>
       <c r="G397" s="36" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="398" spans="1:7" ht="50" customHeight="1">
-      <c r="A398" s="38"/>
+      <c r="A398" s="40"/>
       <c r="C398" s="8" t="s">
         <v>775</v>
       </c>
@@ -17313,11 +18624,11 @@
       <c r="E398" s="10"/>
       <c r="F398" s="10"/>
       <c r="G398" s="36" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="399" spans="1:7" ht="50" customHeight="1">
-      <c r="A399" s="38"/>
+      <c r="A399" s="40"/>
       <c r="C399" s="8" t="s">
         <v>777</v>
       </c>
@@ -17325,15 +18636,15 @@
         <v>778</v>
       </c>
       <c r="E399" s="10" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="F399" s="10"/>
       <c r="G399" s="36" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="400" spans="1:7" ht="50" customHeight="1">
-      <c r="A400" s="38"/>
+      <c r="A400" s="40"/>
       <c r="C400" s="8" t="s">
         <v>779</v>
       </c>
@@ -17343,11 +18654,11 @@
       <c r="E400" s="10"/>
       <c r="F400" s="10"/>
       <c r="G400" s="36" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="401" spans="1:7" ht="50" customHeight="1">
-      <c r="A401" s="38"/>
+      <c r="A401" s="40"/>
       <c r="C401" s="8" t="s">
         <v>781</v>
       </c>
@@ -17355,15 +18666,15 @@
         <v>782</v>
       </c>
       <c r="E401" s="10" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="F401" s="10"/>
       <c r="G401" s="36" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="402" spans="1:7" ht="50" customHeight="1">
-      <c r="A402" s="38"/>
+      <c r="A402" s="40"/>
       <c r="C402" s="8" t="s">
         <v>783</v>
       </c>
@@ -17373,11 +18684,11 @@
       <c r="E402" s="10"/>
       <c r="F402" s="10"/>
       <c r="G402" s="36" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="403" spans="1:7" ht="50" customHeight="1">
-      <c r="A403" s="39"/>
+      <c r="A403" s="41"/>
       <c r="C403" s="8" t="s">
         <v>785</v>
       </c>
@@ -17387,7 +18698,7 @@
       <c r="E403" s="10"/>
       <c r="F403" s="10"/>
       <c r="G403" s="36" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="404" spans="1:7" ht="50" customHeight="1">
@@ -17397,11 +18708,11 @@
       <c r="F404" s="10"/>
     </row>
     <row r="405" spans="1:7" ht="50" customHeight="1">
-      <c r="A405" s="37" t="s">
+      <c r="A405" s="39" t="s">
+        <v>913</v>
+      </c>
+      <c r="B405" s="39" t="s">
         <v>914</v>
-      </c>
-      <c r="B405" s="37" t="s">
-        <v>915</v>
       </c>
       <c r="C405" s="31" t="s">
         <v>787</v>
@@ -17410,12 +18721,12 @@
         <v>788</v>
       </c>
       <c r="G405" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="406" spans="1:7" ht="50" customHeight="1">
-      <c r="A406" s="38"/>
-      <c r="B406" s="38"/>
+      <c r="A406" s="40"/>
+      <c r="B406" s="40"/>
       <c r="C406" s="32" t="s">
         <v>789</v>
       </c>
@@ -17425,12 +18736,12 @@
       <c r="E406" s="10"/>
       <c r="F406" s="10"/>
       <c r="G406" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="407" spans="1:7" ht="50" customHeight="1">
-      <c r="A407" s="38"/>
-      <c r="B407" s="38"/>
+      <c r="A407" s="40"/>
+      <c r="B407" s="40"/>
       <c r="C407" s="32" t="s">
         <v>791</v>
       </c>
@@ -17440,12 +18751,12 @@
       <c r="E407" s="10"/>
       <c r="F407" s="10"/>
       <c r="G407" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="408" spans="1:7" ht="50" customHeight="1">
-      <c r="A408" s="38"/>
-      <c r="B408" s="39"/>
+      <c r="A408" s="40"/>
+      <c r="B408" s="41"/>
       <c r="C408" s="32" t="s">
         <v>793</v>
       </c>
@@ -17455,13 +18766,13 @@
       <c r="E408" s="10"/>
       <c r="F408" s="10"/>
       <c r="G408" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="409" spans="1:7" ht="50" customHeight="1">
-      <c r="A409" s="38"/>
-      <c r="B409" s="37" t="s">
-        <v>916</v>
+      <c r="A409" s="40"/>
+      <c r="B409" s="39" t="s">
+        <v>915</v>
       </c>
       <c r="C409" s="32" t="s">
         <v>795</v>
@@ -17472,12 +18783,12 @@
       <c r="E409" s="10"/>
       <c r="F409" s="10"/>
       <c r="G409" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="410" spans="1:7" ht="50" customHeight="1">
-      <c r="A410" s="38"/>
-      <c r="B410" s="38"/>
+      <c r="A410" s="40"/>
+      <c r="B410" s="40"/>
       <c r="C410" s="32" t="s">
         <v>797</v>
       </c>
@@ -17487,12 +18798,12 @@
       <c r="E410" s="10"/>
       <c r="F410" s="10"/>
       <c r="G410" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="411" spans="1:7" ht="50" customHeight="1">
-      <c r="A411" s="38"/>
-      <c r="B411" s="38"/>
+      <c r="A411" s="40"/>
+      <c r="B411" s="40"/>
       <c r="C411" s="32" t="s">
         <v>799</v>
       </c>
@@ -17500,16 +18811,16 @@
         <v>800</v>
       </c>
       <c r="E411" s="30" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="F411" s="30"/>
       <c r="G411" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="412" spans="1:7" ht="50" customHeight="1">
-      <c r="A412" s="38"/>
-      <c r="B412" s="38"/>
+      <c r="A412" s="40"/>
+      <c r="B412" s="40"/>
       <c r="C412" s="32" t="s">
         <v>801</v>
       </c>
@@ -17519,12 +18830,12 @@
       <c r="E412" s="10"/>
       <c r="F412" s="10"/>
       <c r="G412" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="413" spans="1:7" ht="50" customHeight="1">
-      <c r="A413" s="38"/>
-      <c r="B413" s="38"/>
+      <c r="A413" s="40"/>
+      <c r="B413" s="40"/>
       <c r="C413" s="32" t="s">
         <v>803</v>
       </c>
@@ -17534,12 +18845,12 @@
       <c r="E413" s="10"/>
       <c r="F413" s="10"/>
       <c r="G413" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="414" spans="1:7" ht="50" customHeight="1">
-      <c r="A414" s="38"/>
-      <c r="B414" s="38"/>
+      <c r="A414" s="40"/>
+      <c r="B414" s="40"/>
       <c r="C414" s="32" t="s">
         <v>805</v>
       </c>
@@ -17549,12 +18860,12 @@
       <c r="E414" s="10"/>
       <c r="F414" s="10"/>
       <c r="G414" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="415" spans="1:7" ht="50" customHeight="1">
-      <c r="A415" s="38"/>
-      <c r="B415" s="39"/>
+      <c r="A415" s="40"/>
+      <c r="B415" s="41"/>
       <c r="C415" s="32" t="s">
         <v>807</v>
       </c>
@@ -17564,13 +18875,13 @@
       <c r="E415" s="10"/>
       <c r="F415" s="10"/>
       <c r="G415" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="416" spans="1:7" ht="50" customHeight="1">
-      <c r="A416" s="38"/>
-      <c r="B416" s="37" t="s">
-        <v>917</v>
+      <c r="A416" s="40"/>
+      <c r="B416" s="39" t="s">
+        <v>916</v>
       </c>
       <c r="C416" s="31" t="s">
         <v>809</v>
@@ -17578,29 +18889,33 @@
       <c r="D416" s="15" t="s">
         <v>810</v>
       </c>
+      <c r="E416" s="15" t="s">
+        <v>984</v>
+      </c>
       <c r="G416" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="417" spans="1:7" ht="50" customHeight="1">
-      <c r="A417" s="38"/>
-      <c r="B417" s="39"/>
+      <c r="A417" s="40"/>
+      <c r="B417" s="41"/>
       <c r="C417" s="32" t="s">
         <v>811</v>
       </c>
       <c r="D417" s="9" t="s">
         <v>812</v>
       </c>
-      <c r="E417" s="10"/>
-      <c r="F417" s="10"/>
+      <c r="E417" s="15" t="s">
+        <v>984</v>
+      </c>
       <c r="G417" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="418" spans="1:7" ht="50" customHeight="1">
-      <c r="A418" s="38"/>
-      <c r="B418" s="37" t="s">
-        <v>918</v>
+      <c r="A418" s="40"/>
+      <c r="B418" s="39" t="s">
+        <v>917</v>
       </c>
       <c r="C418" s="31" t="s">
         <v>813</v>
@@ -17609,12 +18924,12 @@
         <v>814</v>
       </c>
       <c r="G418" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="419" spans="1:7" ht="50" customHeight="1">
-      <c r="A419" s="38"/>
-      <c r="B419" s="38"/>
+      <c r="A419" s="40"/>
+      <c r="B419" s="40"/>
       <c r="C419" s="31" t="s">
         <v>815</v>
       </c>
@@ -17622,12 +18937,12 @@
         <v>816</v>
       </c>
       <c r="G419" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="420" spans="1:7" ht="50" customHeight="1">
-      <c r="A420" s="38"/>
-      <c r="B420" s="38"/>
+      <c r="A420" s="40"/>
+      <c r="B420" s="40"/>
       <c r="C420" s="31" t="s">
         <v>817</v>
       </c>
@@ -17635,12 +18950,12 @@
         <v>818</v>
       </c>
       <c r="G420" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="421" spans="1:7" ht="50" customHeight="1">
-      <c r="A421" s="38"/>
-      <c r="B421" s="38"/>
+      <c r="A421" s="40"/>
+      <c r="B421" s="40"/>
       <c r="C421" s="31" t="s">
         <v>819</v>
       </c>
@@ -17648,12 +18963,12 @@
         <v>820</v>
       </c>
       <c r="G421" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="422" spans="1:7" ht="50" customHeight="1">
-      <c r="A422" s="39"/>
-      <c r="B422" s="39"/>
+      <c r="A422" s="41"/>
+      <c r="B422" s="41"/>
       <c r="C422" s="31" t="s">
         <v>821</v>
       </c>
@@ -17661,7 +18976,7 @@
         <v>822</v>
       </c>
       <c r="G422" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
   </sheetData>
@@ -17728,12 +19043,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F414E67DA4490F438DF7F839DDD88F54" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="968179862b391a59b7f67eb3e7667402">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0fddf207-9565-4c1d-88a2-78ac3eb02019" xmlns:ns3="1750c493-bee6-4013-b7a9-faed7d1eacd9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7fc6ea6213b4ec21afdfc08f0704f67a" ns2:_="" ns3:_="">
     <xsd:import namespace="0fddf207-9565-4c1d-88a2-78ac3eb02019"/>
@@ -17936,33 +19260,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1765E8E-7B87-4E57-AE04-80D6CA061ADD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E6096D8-1CD1-477D-852D-41029505002A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="0fddf207-9565-4c1d-88a2-78ac3eb02019"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="1750c493-bee6-4013-b7a9-faed7d1eacd9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1765E8E-7B87-4E57-AE04-80D6CA061ADD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="1750c493-bee6-4013-b7a9-faed7d1eacd9"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="0fddf207-9565-4c1d-88a2-78ac3eb02019"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD5FE2FF-FFA2-4AC8-B9A7-6009CF780188}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17979,12 +19302,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E6096D8-1CD1-477D-852D-41029505002A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>